--- a/Inventario/existenciasvalorizadas_20251005110315.xlsx
+++ b/Inventario/existenciasvalorizadas_20251005110315.xlsx
@@ -734,7 +734,7 @@
         <v>7357</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
+    <row r="5" outlineLevel="3" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -778,7 +778,7 @@
         <v>52234.72222222223</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" outlineLevel="3" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" outlineLevel="3" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -866,7 +866,7 @@
         <v>48715.36</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" outlineLevel="3" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -910,7 +910,7 @@
         <v>12837.5</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" outlineLevel="3" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -954,7 +954,7 @@
         <v>25675</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" outlineLevel="2" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -998,7 +998,7 @@
         <v>6017</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" outlineLevel="3" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1042,7 +1042,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" outlineLevel="2" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" outlineLevel="3" ht="15" customHeight="1">
       <c r="A13" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" outlineLevel="3" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" outlineLevel="3" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" outlineLevel="2" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" outlineLevel="3" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1306,7 +1306,7 @@
         <v>43248</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" outlineLevel="2" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1350,7 +1350,7 @@
         <v>38900.25</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" outlineLevel="1" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1394,7 +1394,7 @@
         <v>21541</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" outlineLevel="3" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" outlineLevel="2" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" outlineLevel="3" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" outlineLevel="3" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1570,7 +1570,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
+    <row r="24" outlineLevel="3" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1614,7 +1614,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
+    <row r="25" outlineLevel="3" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
+    <row r="26" outlineLevel="3" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1702,7 +1702,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1">
+    <row r="27" outlineLevel="3" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1746,7 +1746,7 @@
         <v>17289</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
+    <row r="28" outlineLevel="3" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1790,7 +1790,7 @@
         <v>18617.33333333333</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
+    <row r="29" outlineLevel="3" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1834,7 +1834,7 @@
         <v>11338.05555555555</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
+    <row r="30" outlineLevel="3" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
+    <row r="31" outlineLevel="3" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
+    <row r="32" outlineLevel="3" ht="15" customHeight="1">
       <c r="A32" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" customHeight="1">
+    <row r="33" outlineLevel="3" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
+    <row r="34" outlineLevel="3" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2054,7 +2054,7 @@
         <v>7841.6</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
+    <row r="35" outlineLevel="3" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
+    <row r="36" outlineLevel="3" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="15" customHeight="1">
+    <row r="37" outlineLevel="3" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2186,7 +2186,7 @@
         <v>4901</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
+    <row r="38" outlineLevel="3" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
+    <row r="39" outlineLevel="3" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2274,7 +2274,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
+    <row r="40" outlineLevel="3" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2318,7 +2318,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
+    <row r="41" outlineLevel="3" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
+    <row r="42" outlineLevel="3" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="15" customHeight="1">
+    <row r="43" outlineLevel="3" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2450,7 +2450,7 @@
         <v>273598.8</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
+    <row r="44" outlineLevel="3" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2494,7 +2494,7 @@
         <v>85499.66666666667</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
+    <row r="45" outlineLevel="3" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2538,7 +2538,7 @@
         <v>109271</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
+    <row r="46" outlineLevel="3" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2582,7 +2582,7 @@
         <v>54635.5</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
+    <row r="47" outlineLevel="3" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2626,7 +2626,7 @@
         <v>103618</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
+    <row r="48" outlineLevel="3" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2670,7 +2670,7 @@
         <v>259048</v>
       </c>
     </row>
-    <row r="49" ht="15" customHeight="1">
+    <row r="49" outlineLevel="3" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2714,7 +2714,7 @@
         <v>155428.5</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
+    <row r="50" outlineLevel="3" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2758,7 +2758,7 @@
         <v>218542</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
+    <row r="51" outlineLevel="3" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
+    <row r="52" outlineLevel="2" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2846,7 +2846,7 @@
         <v>207238</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
+    <row r="53" outlineLevel="1" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2890,7 +2890,7 @@
         <v>273598.9090909091</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
+    <row r="54" outlineLevel="3" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="15" customHeight="1">
+    <row r="55" outlineLevel="3" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
+    <row r="56" outlineLevel="3" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3022,7 +3022,7 @@
         <v>237000.8333333333</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
+    <row r="57" outlineLevel="3" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3066,7 +3066,7 @@
         <v>87209.2</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
+    <row r="58" outlineLevel="3" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3110,7 +3110,7 @@
         <v>282599</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
+    <row r="59" outlineLevel="3" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3154,7 +3154,7 @@
         <v>182400</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
+    <row r="60" outlineLevel="3" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3198,7 +3198,7 @@
         <v>113998.5</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
+    <row r="61" outlineLevel="3" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3242,7 +3242,7 @@
         <v>227997.75</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
+    <row r="62" outlineLevel="3" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3286,7 +3286,7 @@
         <v>113039.5</v>
       </c>
     </row>
-    <row r="63" ht="15" customHeight="1">
+    <row r="63" outlineLevel="3" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3330,7 +3330,7 @@
         <v>113997</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
+    <row r="64" outlineLevel="3" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3374,7 +3374,7 @@
         <v>43604.6</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
+    <row r="65" outlineLevel="3" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3418,7 +3418,7 @@
         <v>98590.66666666667</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
+    <row r="66" outlineLevel="3" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3462,7 +3462,7 @@
         <v>169559.4</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
+    <row r="67" outlineLevel="3" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3506,7 +3506,7 @@
         <v>38946.25</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
+    <row r="68" outlineLevel="3" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3550,7 +3550,7 @@
         <v>77892.5</v>
       </c>
     </row>
-    <row r="69" ht="15" customHeight="1">
+    <row r="69" outlineLevel="3" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3594,7 +3594,7 @@
         <v>295772.4</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
+    <row r="70" outlineLevel="3" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3638,7 +3638,7 @@
         <v>147886.5</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
+    <row r="71" outlineLevel="3" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3682,7 +3682,7 @@
         <v>174430.4</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
+    <row r="72" outlineLevel="3" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3726,7 +3726,7 @@
         <v>87215</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
+    <row r="73" outlineLevel="3" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3770,7 +3770,7 @@
         <v>111032.7</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
+    <row r="74" outlineLevel="3" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3814,7 +3814,7 @@
         <v>174430.6666666667</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1">
+    <row r="75" outlineLevel="3" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3858,7 +3858,7 @@
         <v>227999.1666666667</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
+    <row r="76" outlineLevel="3" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3902,7 +3902,7 @@
         <v>370109</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
+    <row r="77" outlineLevel="3" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3946,7 +3946,7 @@
         <v>28500</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
+    <row r="78" outlineLevel="3" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -3990,7 +3990,7 @@
         <v>169559.5</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
+    <row r="79" outlineLevel="3" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
+    <row r="80" outlineLevel="3" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="15" customHeight="1">
+    <row r="81" outlineLevel="3" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
+    <row r="82" outlineLevel="3" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
+    <row r="83" outlineLevel="3" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" ht="15" customHeight="1">
+    <row r="84" outlineLevel="3" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
+    <row r="85" outlineLevel="3" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4298,7 +4298,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
+    <row r="86" outlineLevel="3" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4342,7 +4342,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
+    <row r="87" outlineLevel="3" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4386,7 +4386,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="88" ht="15" customHeight="1">
+    <row r="88" outlineLevel="3" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4430,7 +4430,7 @@
         <v>18960</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
+    <row r="89" outlineLevel="3" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4474,7 +4474,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
+    <row r="90" outlineLevel="2" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4518,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" ht="15" customHeight="1">
+    <row r="91" outlineLevel="1" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4562,7 +4562,7 @@
         <v>19390</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
+    <row r="92" outlineLevel="3" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4606,7 +4606,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
+    <row r="93" outlineLevel="2" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4650,7 +4650,7 @@
         <v>21280</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
+    <row r="94" outlineLevel="3" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4694,7 +4694,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
+    <row r="95" outlineLevel="3" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4738,7 +4738,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
+    <row r="96" outlineLevel="3" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4782,7 +4782,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
+    <row r="97" outlineLevel="2" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4826,7 +4826,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
+    <row r="98" outlineLevel="1" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" ht="15" customHeight="1">
+    <row r="99" outlineLevel="3" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4914,7 +4914,7 @@
         <v>221025</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
+    <row r="100" outlineLevel="3" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -4958,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
+    <row r="101" outlineLevel="3" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" ht="15" customHeight="1">
+    <row r="102" outlineLevel="3" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
+    <row r="103" outlineLevel="3" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5090,7 +5090,7 @@
         <v>134750</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
+    <row r="104" outlineLevel="3" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5134,7 +5134,7 @@
         <v>100750</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
+    <row r="105" outlineLevel="3" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
+    <row r="106" outlineLevel="3" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5222,7 +5222,7 @@
         <v>248505.3333333333</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
+    <row r="107" outlineLevel="3" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5266,7 +5266,7 @@
         <v>217441</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
+    <row r="108" outlineLevel="3" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5310,7 +5310,7 @@
         <v>58798</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
+    <row r="109" outlineLevel="3" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5354,7 +5354,7 @@
         <v>295098.5</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
+    <row r="110" outlineLevel="3" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5398,7 +5398,7 @@
         <v>94000</v>
       </c>
     </row>
-    <row r="111" ht="15" customHeight="1">
+    <row r="111" outlineLevel="3" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5442,7 +5442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" ht="15" customHeight="1">
+    <row r="112" outlineLevel="2" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5486,7 +5486,7 @@
         <v>27849.22</v>
       </c>
     </row>
-    <row r="113" ht="15" customHeight="1">
+    <row r="113" outlineLevel="1" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5530,7 +5530,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="114" ht="15" customHeight="1">
+    <row r="114" outlineLevel="3" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5574,7 +5574,7 @@
         <v>11855.52</v>
       </c>
     </row>
-    <row r="115" ht="15" customHeight="1">
+    <row r="115" outlineLevel="3" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5618,7 +5618,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="116" ht="15" customHeight="1">
+    <row r="116" outlineLevel="3" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" ht="15" customHeight="1">
+    <row r="117" outlineLevel="3" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5706,7 +5706,7 @@
         <v>35111.66666666666</v>
       </c>
     </row>
-    <row r="118" ht="15" customHeight="1">
+    <row r="118" outlineLevel="3" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5750,7 +5750,7 @@
         <v>19210.5</v>
       </c>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119" outlineLevel="3" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5794,7 +5794,7 @@
         <v>22815</v>
       </c>
     </row>
-    <row r="120" ht="15" customHeight="1">
+    <row r="120" outlineLevel="3" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5838,7 +5838,7 @@
         <v>4201.5</v>
       </c>
     </row>
-    <row r="121" ht="15" customHeight="1">
+    <row r="121" outlineLevel="3" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5882,7 +5882,7 @@
         <v>9851.428571428571</v>
       </c>
     </row>
-    <row r="122" ht="15" customHeight="1">
+    <row r="122" outlineLevel="3" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" ht="15" customHeight="1">
+    <row r="123" outlineLevel="3" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -5970,7 +5970,7 @@
         <v>9610.105263157895</v>
       </c>
     </row>
-    <row r="124" ht="15" customHeight="1">
+    <row r="124" outlineLevel="3" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6014,7 +6014,7 @@
         <v>26633.75</v>
       </c>
     </row>
-    <row r="125" ht="15" customHeight="1">
+    <row r="125" outlineLevel="3" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6058,7 +6058,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="126" ht="15" customHeight="1">
+    <row r="126" outlineLevel="3" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6102,7 +6102,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="127" ht="15" customHeight="1">
+    <row r="127" outlineLevel="3" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" ht="15" customHeight="1">
+    <row r="128" outlineLevel="3" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6190,7 +6190,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129" outlineLevel="2" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6234,7 +6234,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="130" ht="15" customHeight="1">
+    <row r="130" outlineLevel="3" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6278,7 +6278,7 @@
         <v>22700</v>
       </c>
     </row>
-    <row r="131" ht="15" customHeight="1">
+    <row r="131" outlineLevel="3" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6322,7 +6322,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="132" ht="15" customHeight="1">
+    <row r="132" outlineLevel="3" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6366,7 +6366,7 @@
         <v>76700</v>
       </c>
     </row>
-    <row r="133" ht="15" customHeight="1">
+    <row r="133" outlineLevel="3" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6410,7 +6410,7 @@
         <v>39500</v>
       </c>
     </row>
-    <row r="134" ht="15" customHeight="1">
+    <row r="134" outlineLevel="3" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6454,7 +6454,7 @@
         <v>68136</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1">
+    <row r="135" outlineLevel="3" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1">
+    <row r="136" outlineLevel="3" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6542,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" ht="15" customHeight="1">
+    <row r="137" outlineLevel="3" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" ht="15" customHeight="1">
+    <row r="138" outlineLevel="2" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6630,7 +6630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" ht="15" customHeight="1">
+    <row r="139" outlineLevel="3" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6674,7 +6674,7 @@
         <v>3592.666666666667</v>
       </c>
     </row>
-    <row r="140" ht="15" customHeight="1">
+    <row r="140" outlineLevel="3" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6718,7 +6718,7 @@
         <v>7185.333333333333</v>
       </c>
     </row>
-    <row r="141" ht="15" customHeight="1">
+    <row r="141" outlineLevel="3" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6762,7 +6762,7 @@
         <v>5250.666666666666</v>
       </c>
     </row>
-    <row r="142" ht="15" customHeight="1">
+    <row r="142" outlineLevel="3" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6806,7 +6806,7 @@
         <v>48823.5</v>
       </c>
     </row>
-    <row r="143" ht="15" customHeight="1">
+    <row r="143" outlineLevel="3" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6850,7 +6850,7 @@
         <v>48823.5</v>
       </c>
     </row>
-    <row r="144" ht="15" customHeight="1">
+    <row r="144" outlineLevel="2" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6894,7 +6894,7 @@
         <v>3747.25</v>
       </c>
     </row>
-    <row r="145" ht="15" customHeight="1">
+    <row r="145" outlineLevel="3" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6938,7 +6938,7 @@
         <v>22885.8</v>
       </c>
     </row>
-    <row r="146" ht="15" customHeight="1">
+    <row r="146" outlineLevel="3" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -6982,7 +6982,7 @@
         <v>34078.33333333333</v>
       </c>
     </row>
-    <row r="147" ht="15" customHeight="1">
+    <row r="147" outlineLevel="3" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7026,7 +7026,7 @@
         <v>7274</v>
       </c>
     </row>
-    <row r="148" ht="15" customHeight="1">
+    <row r="148" outlineLevel="3" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7070,7 +7070,7 @@
         <v>3602</v>
       </c>
     </row>
-    <row r="149" ht="15" customHeight="1">
+    <row r="149" outlineLevel="3" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" ht="15" customHeight="1">
+    <row r="150" outlineLevel="3" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7158,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" ht="15" customHeight="1">
+    <row r="151" outlineLevel="3" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" ht="15" customHeight="1">
+    <row r="152" outlineLevel="3" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" ht="15" customHeight="1">
+    <row r="153" outlineLevel="3" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7290,7 +7290,7 @@
         <v>5687.5</v>
       </c>
     </row>
-    <row r="154" ht="15" customHeight="1">
+    <row r="154" outlineLevel="2" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7334,7 +7334,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="155" ht="15" customHeight="1">
+    <row r="155" outlineLevel="1" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7378,7 +7378,7 @@
         <v>26793</v>
       </c>
     </row>
-    <row r="156" ht="15" customHeight="1">
+    <row r="156" outlineLevel="3" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7422,7 +7422,7 @@
         <v>75447</v>
       </c>
     </row>
-    <row r="157" ht="15" customHeight="1">
+    <row r="157" outlineLevel="3" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7466,7 +7466,7 @@
         <v>75339</v>
       </c>
     </row>
-    <row r="158" ht="15" customHeight="1">
+    <row r="158" outlineLevel="2" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7510,7 +7510,7 @@
         <v>92192.8</v>
       </c>
     </row>
-    <row r="159" ht="15" customHeight="1">
+    <row r="159" outlineLevel="1" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7554,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" ht="15" customHeight="1">
+    <row r="160" outlineLevel="3" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7598,7 +7598,7 @@
         <v>41036</v>
       </c>
     </row>
-    <row r="161" ht="15" customHeight="1">
+    <row r="161" outlineLevel="3" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7642,7 +7642,7 @@
         <v>26428</v>
       </c>
     </row>
-    <row r="162" ht="15" customHeight="1">
+    <row r="162" outlineLevel="3" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7686,7 +7686,7 @@
         <v>14670.25</v>
       </c>
     </row>
-    <row r="163" ht="15" customHeight="1">
+    <row r="163" outlineLevel="3" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7730,7 +7730,7 @@
         <v>40189.5</v>
       </c>
     </row>
-    <row r="164" ht="15" customHeight="1">
+    <row r="164" outlineLevel="3" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" ht="15" customHeight="1">
+    <row r="165" outlineLevel="3" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7818,7 +7818,7 @@
         <v>24991</v>
       </c>
     </row>
-    <row r="166" ht="15" customHeight="1">
+    <row r="166" outlineLevel="3" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7862,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" ht="15" customHeight="1">
+    <row r="167" outlineLevel="3" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7906,7 +7906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" ht="15" customHeight="1">
+    <row r="168" outlineLevel="3" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7950,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" ht="15" customHeight="1">
+    <row r="169" outlineLevel="3" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -7994,7 +7994,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="170" ht="15" customHeight="1">
+    <row r="170" outlineLevel="3" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8038,7 +8038,7 @@
         <v>39818.72222222222</v>
       </c>
     </row>
-    <row r="171" ht="15" customHeight="1">
+    <row r="171" outlineLevel="3" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8082,7 +8082,7 @@
         <v>59464.125</v>
       </c>
     </row>
-    <row r="172" ht="15" customHeight="1">
+    <row r="172" outlineLevel="3" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8126,7 +8126,7 @@
         <v>25149</v>
       </c>
     </row>
-    <row r="173" ht="15" customHeight="1">
+    <row r="173" outlineLevel="3" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8170,7 +8170,7 @@
         <v>40433.33333333333</v>
       </c>
     </row>
-    <row r="174" ht="15" customHeight="1">
+    <row r="174" outlineLevel="3" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8214,7 +8214,7 @@
         <v>39642</v>
       </c>
     </row>
-    <row r="175" ht="15" customHeight="1">
+    <row r="175" outlineLevel="3" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" ht="15" customHeight="1">
+    <row r="176" outlineLevel="3" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8302,7 +8302,7 @@
         <v>63479</v>
       </c>
     </row>
-    <row r="177" ht="15" customHeight="1">
+    <row r="177" outlineLevel="3" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8346,7 +8346,7 @@
         <v>21153.8</v>
       </c>
     </row>
-    <row r="178" ht="15" customHeight="1">
+    <row r="178" outlineLevel="3" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8390,7 +8390,7 @@
         <v>52855.99999999999</v>
       </c>
     </row>
-    <row r="179" ht="15" customHeight="1">
+    <row r="179" outlineLevel="3" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8434,7 +8434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15" customHeight="1">
+    <row r="180" outlineLevel="2" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8478,7 +8478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15" customHeight="1">
+    <row r="181" outlineLevel="3" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8522,7 +8522,7 @@
         <v>4423.5</v>
       </c>
     </row>
-    <row r="182" ht="15" customHeight="1">
+    <row r="182" outlineLevel="3" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8566,7 +8566,7 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="183" ht="15" customHeight="1">
+    <row r="183" outlineLevel="3" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15" customHeight="1">
+    <row r="184" outlineLevel="3" ht="15" customHeight="1">
       <c r="A184" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8654,7 +8654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15" customHeight="1">
+    <row r="185" outlineLevel="3" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8698,7 +8698,7 @@
         <v>14165</v>
       </c>
     </row>
-    <row r="186" ht="15" customHeight="1">
+    <row r="186" outlineLevel="3" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8742,7 +8742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15" customHeight="1">
+    <row r="187" outlineLevel="3" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8786,7 +8786,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="188" ht="15" customHeight="1">
+    <row r="188" outlineLevel="3" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8830,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15" customHeight="1">
+    <row r="189" outlineLevel="3" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8874,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" ht="15" customHeight="1">
+    <row r="190" outlineLevel="3" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8918,7 +8918,7 @@
         <v>81293.40000000001</v>
       </c>
     </row>
-    <row r="191" ht="15" customHeight="1">
+    <row r="191" outlineLevel="3" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -8962,7 +8962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" ht="15" customHeight="1">
+    <row r="192" outlineLevel="3" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" ht="15" customHeight="1">
+    <row r="193" outlineLevel="3" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9050,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" ht="15" customHeight="1">
+    <row r="194" outlineLevel="3" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" ht="15" customHeight="1">
+    <row r="195" outlineLevel="3" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9138,7 +9138,7 @@
         <v>35712</v>
       </c>
     </row>
-    <row r="196" ht="15" customHeight="1">
+    <row r="196" outlineLevel="3" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9182,7 +9182,7 @@
         <v>14843.25</v>
       </c>
     </row>
-    <row r="197" ht="15" customHeight="1">
+    <row r="197" outlineLevel="3" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9226,7 +9226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" ht="15" customHeight="1">
+    <row r="198" outlineLevel="3" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9270,7 +9270,7 @@
         <v>13898.66666666667</v>
       </c>
     </row>
-    <row r="199" ht="15" customHeight="1">
+    <row r="199" outlineLevel="3" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9314,7 +9314,7 @@
         <v>4021.5</v>
       </c>
     </row>
-    <row r="200" ht="15" customHeight="1">
+    <row r="200" outlineLevel="3" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9358,7 +9358,7 @@
         <v>7226</v>
       </c>
     </row>
-    <row r="201" ht="15" customHeight="1">
+    <row r="201" outlineLevel="3" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9402,7 +9402,7 @@
         <v>10609.5</v>
       </c>
     </row>
-    <row r="202" ht="15" customHeight="1">
+    <row r="202" outlineLevel="3" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9446,7 +9446,7 @@
         <v>9782</v>
       </c>
     </row>
-    <row r="203" ht="15" customHeight="1">
+    <row r="203" outlineLevel="3" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9490,7 +9490,7 @@
         <v>9119</v>
       </c>
     </row>
-    <row r="204" ht="15" customHeight="1">
+    <row r="204" outlineLevel="3" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9534,7 +9534,7 @@
         <v>4891</v>
       </c>
     </row>
-    <row r="205" ht="15" customHeight="1">
+    <row r="205" outlineLevel="3" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9578,7 +9578,7 @@
         <v>4263</v>
       </c>
     </row>
-    <row r="206" ht="15" customHeight="1">
+    <row r="206" outlineLevel="3" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9622,7 +9622,7 @@
         <v>29616</v>
       </c>
     </row>
-    <row r="207" ht="15" customHeight="1">
+    <row r="207" outlineLevel="2" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9666,7 +9666,7 @@
         <v>7423</v>
       </c>
     </row>
-    <row r="208" ht="15" customHeight="1">
+    <row r="208" outlineLevel="3" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9710,7 +9710,7 @@
         <v>3671</v>
       </c>
     </row>
-    <row r="209" ht="15" customHeight="1">
+    <row r="209" outlineLevel="3" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9754,7 +9754,7 @@
         <v>13899</v>
       </c>
     </row>
-    <row r="210" ht="15" customHeight="1">
+    <row r="210" outlineLevel="3" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9798,7 +9798,7 @@
         <v>15526</v>
       </c>
     </row>
-    <row r="211" ht="15" customHeight="1">
+    <row r="211" outlineLevel="3" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9842,7 +9842,7 @@
         <v>13899</v>
       </c>
     </row>
-    <row r="212" ht="15" customHeight="1">
+    <row r="212" outlineLevel="3" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9886,7 +9886,7 @@
         <v>20848</v>
       </c>
     </row>
-    <row r="213" ht="15" customHeight="1">
+    <row r="213" outlineLevel="3" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" ht="15" customHeight="1">
+    <row r="214" outlineLevel="3" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -9974,7 +9974,7 @@
         <v>22191</v>
       </c>
     </row>
-    <row r="215" ht="15" customHeight="1">
+    <row r="215" outlineLevel="3" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10018,7 +10018,7 @@
         <v>12791</v>
       </c>
     </row>
-    <row r="216" ht="15" customHeight="1">
+    <row r="216" outlineLevel="3" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10062,7 +10062,7 @@
         <v>11052.75</v>
       </c>
     </row>
-    <row r="217" ht="15" customHeight="1">
+    <row r="217" outlineLevel="3" ht="15" customHeight="1">
       <c r="A217" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10106,7 +10106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" ht="15" customHeight="1">
+    <row r="218" outlineLevel="3" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10150,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" ht="15" customHeight="1">
+    <row r="219" outlineLevel="3" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" ht="15" customHeight="1">
+    <row r="220" outlineLevel="3" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" ht="15" customHeight="1">
+    <row r="221" outlineLevel="3" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10282,7 +10282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" ht="15" customHeight="1">
+    <row r="222" outlineLevel="3" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" ht="15" customHeight="1">
+    <row r="223" outlineLevel="3" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" ht="15" customHeight="1">
+    <row r="224" outlineLevel="3" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" ht="15" customHeight="1">
+    <row r="225" outlineLevel="3" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" ht="15" customHeight="1">
+    <row r="226" outlineLevel="3" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10502,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" ht="15" customHeight="1">
+    <row r="227" outlineLevel="3" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" ht="15" customHeight="1">
+    <row r="228" outlineLevel="3" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" ht="15" customHeight="1">
+    <row r="229" outlineLevel="3" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10634,7 +10634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="15" customHeight="1">
+    <row r="230" outlineLevel="3" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" ht="15" customHeight="1">
+    <row r="231" outlineLevel="3" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" ht="15" customHeight="1">
+    <row r="232" outlineLevel="3" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="15" customHeight="1">
+    <row r="233" outlineLevel="3" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10810,7 +10810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" ht="15" customHeight="1">
+    <row r="234" outlineLevel="3" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="15" customHeight="1">
+    <row r="235" outlineLevel="3" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" ht="15" customHeight="1">
+    <row r="236" outlineLevel="3" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10942,7 +10942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" ht="15" customHeight="1">
+    <row r="237" outlineLevel="3" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" ht="15" customHeight="1">
+    <row r="238" outlineLevel="3" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11030,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239" outlineLevel="3" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" ht="15" customHeight="1">
+    <row r="240" outlineLevel="3" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11118,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" ht="15" customHeight="1">
+    <row r="241" outlineLevel="3" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" ht="15" customHeight="1">
+    <row r="242" outlineLevel="3" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11206,7 +11206,7 @@
         <v>15232.5</v>
       </c>
     </row>
-    <row r="243" ht="15" customHeight="1">
+    <row r="243" outlineLevel="3" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11250,7 +11250,7 @@
         <v>7616.5</v>
       </c>
     </row>
-    <row r="244" ht="15" customHeight="1">
+    <row r="244" outlineLevel="2" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="15" customHeight="1">
+    <row r="245" outlineLevel="3" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11338,7 +11338,7 @@
         <v>43829.33333333334</v>
       </c>
     </row>
-    <row r="246" ht="15" customHeight="1">
+    <row r="246" outlineLevel="2" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11382,7 +11382,7 @@
         <v>106780.95</v>
       </c>
     </row>
-    <row r="247" ht="15" customHeight="1">
+    <row r="247" outlineLevel="3" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11426,7 +11426,7 @@
         <v>17150</v>
       </c>
     </row>
-    <row r="248" ht="15" customHeight="1">
+    <row r="248" outlineLevel="3" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11470,7 +11470,7 @@
         <v>50158.8</v>
       </c>
     </row>
-    <row r="249" ht="15" customHeight="1">
+    <row r="249" outlineLevel="3" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11514,7 +11514,7 @@
         <v>6792</v>
       </c>
     </row>
-    <row r="250" ht="15" customHeight="1">
+    <row r="250" outlineLevel="3" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11558,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" ht="15" customHeight="1">
+    <row r="251" outlineLevel="3" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" ht="15" customHeight="1">
+    <row r="252" outlineLevel="3" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11646,7 +11646,7 @@
         <v>14610</v>
       </c>
     </row>
-    <row r="253" ht="15" customHeight="1">
+    <row r="253" outlineLevel="3" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11690,7 +11690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" ht="15" customHeight="1">
+    <row r="254" outlineLevel="3" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11734,7 +11734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" ht="15" customHeight="1">
+    <row r="255" outlineLevel="3" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11778,7 +11778,7 @@
         <v>10812</v>
       </c>
     </row>
-    <row r="256" ht="15" customHeight="1">
+    <row r="256" outlineLevel="3" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11822,7 +11822,7 @@
         <v>14415</v>
       </c>
     </row>
-    <row r="257" ht="15" customHeight="1">
+    <row r="257" outlineLevel="3" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="15" customHeight="1">
+    <row r="258" outlineLevel="3" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11910,7 +11910,7 @@
         <v>7007.5</v>
       </c>
     </row>
-    <row r="259" ht="15" customHeight="1">
+    <row r="259" outlineLevel="3" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11954,7 +11954,7 @@
         <v>7007.5</v>
       </c>
     </row>
-    <row r="260" ht="15" customHeight="1">
+    <row r="260" outlineLevel="3" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -11998,7 +11998,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="261" ht="15" customHeight="1">
+    <row r="261" outlineLevel="3" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12042,7 +12042,7 @@
         <v>13593</v>
       </c>
     </row>
-    <row r="262" ht="15" customHeight="1">
+    <row r="262" outlineLevel="3" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12086,7 +12086,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="263" ht="15" customHeight="1">
+    <row r="263" outlineLevel="3" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12130,7 +12130,7 @@
         <v>19191.66666666666</v>
       </c>
     </row>
-    <row r="264" ht="15" customHeight="1">
+    <row r="264" outlineLevel="3" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12174,7 +12174,7 @@
         <v>22147.5</v>
       </c>
     </row>
-    <row r="265" ht="15" customHeight="1">
+    <row r="265" outlineLevel="3" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12218,7 +12218,7 @@
         <v>17718.28571428571</v>
       </c>
     </row>
-    <row r="266" ht="15" customHeight="1">
+    <row r="266" outlineLevel="3" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12262,7 +12262,7 @@
         <v>208000</v>
       </c>
     </row>
-    <row r="267" ht="15" customHeight="1">
+    <row r="267" outlineLevel="3" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12306,7 +12306,7 @@
         <v>16480</v>
       </c>
     </row>
-    <row r="268" ht="15" customHeight="1">
+    <row r="268" outlineLevel="3" ht="15" customHeight="1">
       <c r="A268" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12350,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="15" customHeight="1">
+    <row r="269" outlineLevel="3" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12394,7 +12394,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="270" ht="15" customHeight="1">
+    <row r="270" outlineLevel="2" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12438,7 +12438,7 @@
         <v>6353</v>
       </c>
     </row>
-    <row r="271" ht="15" customHeight="1">
+    <row r="271" outlineLevel="3" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12482,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" ht="15" customHeight="1">
+    <row r="272" outlineLevel="2" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12526,7 +12526,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="273" ht="15" customHeight="1">
+    <row r="273" outlineLevel="3" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12570,7 +12570,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="274" ht="15" customHeight="1">
+    <row r="274" outlineLevel="3" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12614,7 +12614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" ht="15" customHeight="1">
+    <row r="275" outlineLevel="3" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12658,7 +12658,7 @@
         <v>77754</v>
       </c>
     </row>
-    <row r="276" ht="15" customHeight="1">
+    <row r="276" outlineLevel="3" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12702,7 +12702,7 @@
         <v>50350</v>
       </c>
     </row>
-    <row r="277" ht="15" customHeight="1">
+    <row r="277" outlineLevel="3" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12746,7 +12746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" ht="15" customHeight="1">
+    <row r="278" outlineLevel="3" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12790,7 +12790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" ht="15" customHeight="1">
+    <row r="279" outlineLevel="3" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12834,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" ht="15" customHeight="1">
+    <row r="280" outlineLevel="3" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" ht="15" customHeight="1">
+    <row r="281" outlineLevel="3" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" ht="15" customHeight="1">
+    <row r="282" outlineLevel="3" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -12966,7 +12966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" ht="15" customHeight="1">
+    <row r="283" outlineLevel="3" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13010,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" ht="15" customHeight="1">
+    <row r="284" outlineLevel="3" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" ht="15" customHeight="1">
+    <row r="285" outlineLevel="2" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13098,7 +13098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" ht="15" customHeight="1">
+    <row r="286" outlineLevel="3" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13142,7 +13142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" ht="15" customHeight="1">
+    <row r="287" outlineLevel="3" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" ht="15" customHeight="1">
+    <row r="288" outlineLevel="3" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" ht="15" customHeight="1">
+    <row r="289" outlineLevel="3" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" ht="15" customHeight="1">
+    <row r="290" outlineLevel="3" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13318,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" ht="15" customHeight="1">
+    <row r="291" outlineLevel="3" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" ht="15" customHeight="1">
+    <row r="292" outlineLevel="3" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13406,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="15" customHeight="1">
+    <row r="293" outlineLevel="3" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" ht="15" customHeight="1">
+    <row r="294" outlineLevel="3" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13494,7 +13494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" ht="15" customHeight="1">
+    <row r="295" outlineLevel="3" ht="15" customHeight="1">
       <c r="A295" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13538,7 +13538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" ht="15" customHeight="1">
+    <row r="296" outlineLevel="3" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13582,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="15" customHeight="1">
+    <row r="297" outlineLevel="3" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13626,7 +13626,7 @@
         <v>59568</v>
       </c>
     </row>
-    <row r="298" ht="15" customHeight="1">
+    <row r="298" outlineLevel="2" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13670,7 +13670,7 @@
         <v>59742</v>
       </c>
     </row>
-    <row r="299" ht="15" customHeight="1">
+    <row r="299" outlineLevel="1" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13714,7 +13714,7 @@
         <v>59568</v>
       </c>
     </row>
-    <row r="300" ht="15" customHeight="1">
+    <row r="300" outlineLevel="3" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13758,7 +13758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" ht="15" customHeight="1">
+    <row r="301" outlineLevel="3" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13802,7 +13802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" ht="15" customHeight="1">
+    <row r="302" outlineLevel="3" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" ht="15" customHeight="1">
+    <row r="303" outlineLevel="2" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13890,7 +13890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" ht="15" customHeight="1">
+    <row r="304" outlineLevel="3" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13934,7 +13934,7 @@
         <v>21471.625</v>
       </c>
     </row>
-    <row r="305" ht="15" customHeight="1">
+    <row r="305" outlineLevel="3" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -13978,7 +13978,7 @@
         <v>4288.125</v>
       </c>
     </row>
-    <row r="306" ht="15" customHeight="1">
+    <row r="306" outlineLevel="3" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14022,7 +14022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" ht="15" customHeight="1">
+    <row r="307" outlineLevel="3" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14066,7 +14066,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="308" ht="15" customHeight="1">
+    <row r="308" outlineLevel="3" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" ht="15" customHeight="1">
+    <row r="309" outlineLevel="3" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14154,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" ht="15" customHeight="1">
+    <row r="310" outlineLevel="3" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14198,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" ht="15" customHeight="1">
+    <row r="311" outlineLevel="3" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14242,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" ht="15" customHeight="1">
+    <row r="312" outlineLevel="3" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14286,7 +14286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" ht="15" customHeight="1">
+    <row r="313" outlineLevel="3" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" ht="15" customHeight="1">
+    <row r="314" outlineLevel="3" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" ht="15" customHeight="1">
+    <row r="315" outlineLevel="3" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14418,7 +14418,7 @@
         <v>6481.500000000001</v>
       </c>
     </row>
-    <row r="316" ht="15" customHeight="1">
+    <row r="316" outlineLevel="3" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14462,7 +14462,7 @@
         <v>8642</v>
       </c>
     </row>
-    <row r="317" ht="15" customHeight="1">
+    <row r="317" outlineLevel="3" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14506,7 +14506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" ht="15" customHeight="1">
+    <row r="318" outlineLevel="3" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" ht="15" customHeight="1">
+    <row r="319" outlineLevel="3" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14594,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" ht="15" customHeight="1">
+    <row r="320" outlineLevel="3" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" ht="15" customHeight="1">
+    <row r="321" outlineLevel="3" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14682,7 +14682,7 @@
         <v>9010</v>
       </c>
     </row>
-    <row r="322" ht="15" customHeight="1">
+    <row r="322" outlineLevel="3" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" ht="15" customHeight="1">
+    <row r="323" outlineLevel="3" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14770,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" ht="15" customHeight="1">
+    <row r="324" outlineLevel="3" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14814,7 +14814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" ht="15" customHeight="1">
+    <row r="325" outlineLevel="3" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14858,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" ht="15" customHeight="1">
+    <row r="326" outlineLevel="3" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14902,7 +14902,7 @@
         <v>9450</v>
       </c>
     </row>
-    <row r="327" ht="15" customHeight="1">
+    <row r="327" outlineLevel="3" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14946,7 +14946,7 @@
         <v>18900</v>
       </c>
     </row>
-    <row r="328" ht="15" customHeight="1">
+    <row r="328" outlineLevel="3" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" ht="15" customHeight="1">
+    <row r="329" outlineLevel="3" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15034,7 +15034,7 @@
         <v>2110.25</v>
       </c>
     </row>
-    <row r="330" ht="15" customHeight="1">
+    <row r="330" outlineLevel="2" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15078,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" ht="15" customHeight="1">
+    <row r="331" outlineLevel="3" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" ht="15" customHeight="1">
+    <row r="332" outlineLevel="3" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15166,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" ht="15" customHeight="1">
+    <row r="333" outlineLevel="3" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15210,7 +15210,7 @@
         <v>3595.5</v>
       </c>
     </row>
-    <row r="334" ht="15" customHeight="1">
+    <row r="334" outlineLevel="3" ht="15" customHeight="1">
       <c r="A334" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15254,7 +15254,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="335" ht="15" customHeight="1">
+    <row r="335" outlineLevel="3" ht="15" customHeight="1">
       <c r="A335" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15298,7 +15298,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="336" ht="15" customHeight="1">
+    <row r="336" outlineLevel="3" ht="15" customHeight="1">
       <c r="A336" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" ht="15" customHeight="1">
+    <row r="337" outlineLevel="2" ht="15" customHeight="1">
       <c r="A337" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15386,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" ht="15" customHeight="1">
+    <row r="338" outlineLevel="1" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15430,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" ht="15" customHeight="1">
+    <row r="339" outlineLevel="3" ht="15" customHeight="1">
       <c r="A339" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15474,7 +15474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" ht="15" customHeight="1">
+    <row r="340" outlineLevel="3" ht="15" customHeight="1">
       <c r="A340" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15518,7 +15518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" ht="15" customHeight="1">
+    <row r="341" outlineLevel="3" ht="15" customHeight="1">
       <c r="A341" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15562,7 +15562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" ht="15" customHeight="1">
+    <row r="342" outlineLevel="3" ht="15" customHeight="1">
       <c r="A342" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15606,7 +15606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" ht="15" customHeight="1">
+    <row r="343" outlineLevel="3" ht="15" customHeight="1">
       <c r="A343" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15650,7 +15650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" ht="15" customHeight="1">
+    <row r="344" outlineLevel="3" ht="15" customHeight="1">
       <c r="A344" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15694,7 +15694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" ht="15" customHeight="1">
+    <row r="345" outlineLevel="2" ht="15" customHeight="1">
       <c r="A345" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15738,7 +15738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" ht="15" customHeight="1">
+    <row r="346" outlineLevel="3" ht="15" customHeight="1">
       <c r="A346" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15782,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" ht="15" customHeight="1">
+    <row r="347" outlineLevel="2" ht="15" customHeight="1">
       <c r="A347" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15826,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" ht="15" customHeight="1">
+    <row r="348" outlineLevel="3" ht="15" customHeight="1">
       <c r="A348" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" ht="15" customHeight="1">
+    <row r="349" outlineLevel="3" ht="15" customHeight="1">
       <c r="A349" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" ht="15" customHeight="1">
+    <row r="350" outlineLevel="3" ht="15" customHeight="1">
       <c r="A350" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -15958,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" ht="15" customHeight="1">
+    <row r="351" outlineLevel="3" ht="15" customHeight="1">
       <c r="A351" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16002,7 +16002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" ht="15" customHeight="1">
+    <row r="352" outlineLevel="3" ht="15" customHeight="1">
       <c r="A352" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16046,7 +16046,7 @@
         <v>20746.66666666667</v>
       </c>
     </row>
-    <row r="353" ht="15" customHeight="1">
+    <row r="353" outlineLevel="3" ht="15" customHeight="1">
       <c r="A353" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16090,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" ht="15" customHeight="1">
+    <row r="354" outlineLevel="3" ht="15" customHeight="1">
       <c r="A354" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16134,7 +16134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" ht="15" customHeight="1">
+    <row r="355" outlineLevel="3" ht="15" customHeight="1">
       <c r="A355" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16178,7 +16178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" ht="15" customHeight="1">
+    <row r="356" outlineLevel="3" ht="15" customHeight="1">
       <c r="A356" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16222,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" ht="15" customHeight="1">
+    <row r="357" outlineLevel="3" ht="15" customHeight="1">
       <c r="A357" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16266,7 +16266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" ht="15" customHeight="1">
+    <row r="358" outlineLevel="3" ht="15" customHeight="1">
       <c r="A358" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16310,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" ht="15" customHeight="1">
+    <row r="359" outlineLevel="3" ht="15" customHeight="1">
       <c r="A359" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16354,7 +16354,7 @@
         <v>18584.5</v>
       </c>
     </row>
-    <row r="360" ht="15" customHeight="1">
+    <row r="360" outlineLevel="3" ht="15" customHeight="1">
       <c r="A360" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16398,7 +16398,7 @@
         <v>12966.66666666667</v>
       </c>
     </row>
-    <row r="361" ht="15" customHeight="1">
+    <row r="361" outlineLevel="3" ht="15" customHeight="1">
       <c r="A361" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16442,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" ht="15" customHeight="1">
+    <row r="362" outlineLevel="3" ht="15" customHeight="1">
       <c r="A362" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" ht="15" customHeight="1">
+    <row r="363" outlineLevel="3" ht="15" customHeight="1">
       <c r="A363" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16530,7 +16530,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="364" ht="15" customHeight="1">
+    <row r="364" outlineLevel="3" ht="15" customHeight="1">
       <c r="A364" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16574,7 +16574,7 @@
         <v>5186.666666666667</v>
       </c>
     </row>
-    <row r="365" ht="15" customHeight="1">
+    <row r="365" outlineLevel="3" ht="15" customHeight="1">
       <c r="A365" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16618,7 +16618,7 @@
         <v>17491.66666666667</v>
       </c>
     </row>
-    <row r="366" ht="15" customHeight="1">
+    <row r="366" outlineLevel="3" ht="15" customHeight="1">
       <c r="A366" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16662,7 +16662,7 @@
         <v>7776.5</v>
       </c>
     </row>
-    <row r="367" ht="15" customHeight="1">
+    <row r="367" outlineLevel="3" ht="15" customHeight="1">
       <c r="A367" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16706,7 +16706,7 @@
         <v>7776.5</v>
       </c>
     </row>
-    <row r="368" ht="15" customHeight="1">
+    <row r="368" outlineLevel="3" ht="15" customHeight="1">
       <c r="A368" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16750,7 +16750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" ht="15" customHeight="1">
+    <row r="369" outlineLevel="3" ht="15" customHeight="1">
       <c r="A369" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" ht="15" customHeight="1">
+    <row r="370" outlineLevel="3" ht="15" customHeight="1">
       <c r="A370" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" ht="15" customHeight="1">
+    <row r="371" outlineLevel="3" ht="15" customHeight="1">
       <c r="A371" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16882,7 +16882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" ht="15" customHeight="1">
+    <row r="372" outlineLevel="3" ht="15" customHeight="1">
       <c r="A372" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16926,7 +16926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" ht="15" customHeight="1">
+    <row r="373" outlineLevel="3" ht="15" customHeight="1">
       <c r="A373" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -16970,7 +16970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" ht="15" customHeight="1">
+    <row r="374" outlineLevel="3" ht="15" customHeight="1">
       <c r="A374" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17014,7 +17014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" ht="15" customHeight="1">
+    <row r="375" outlineLevel="3" ht="15" customHeight="1">
       <c r="A375" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17058,7 +17058,7 @@
         <v>34983.33333333334</v>
       </c>
     </row>
-    <row r="376" ht="15" customHeight="1">
+    <row r="376" outlineLevel="3" ht="15" customHeight="1">
       <c r="A376" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" ht="15" customHeight="1">
+    <row r="377" outlineLevel="3" ht="15" customHeight="1">
       <c r="A377" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17146,7 +17146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" ht="15" customHeight="1">
+    <row r="378" outlineLevel="3" ht="15" customHeight="1">
       <c r="A378" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17190,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" ht="15" customHeight="1">
+    <row r="379" outlineLevel="3" ht="15" customHeight="1">
       <c r="A379" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17234,7 +17234,7 @@
         <v>19536</v>
       </c>
     </row>
-    <row r="380" ht="15" customHeight="1">
+    <row r="380" outlineLevel="3" ht="15" customHeight="1">
       <c r="A380" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17278,7 +17278,7 @@
         <v>18249</v>
       </c>
     </row>
-    <row r="381" ht="15" customHeight="1">
+    <row r="381" outlineLevel="2" ht="15" customHeight="1">
       <c r="A381" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17322,7 +17322,7 @@
         <v>23077.08333333334</v>
       </c>
     </row>
-    <row r="382" ht="15" customHeight="1">
+    <row r="382" outlineLevel="3" ht="15" customHeight="1">
       <c r="A382" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17366,7 +17366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" ht="15" customHeight="1">
+    <row r="383" outlineLevel="3" ht="15" customHeight="1">
       <c r="A383" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" ht="15" customHeight="1">
+    <row r="384" outlineLevel="3" ht="15" customHeight="1">
       <c r="A384" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17454,7 +17454,7 @@
         <v>12873.66666666667</v>
       </c>
     </row>
-    <row r="385" ht="15" customHeight="1">
+    <row r="385" outlineLevel="3" ht="15" customHeight="1">
       <c r="A385" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17498,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" ht="15" customHeight="1">
+    <row r="386" outlineLevel="3" ht="15" customHeight="1">
       <c r="A386" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17542,7 +17542,7 @@
         <v>20592</v>
       </c>
     </row>
-    <row r="387" ht="15" customHeight="1">
+    <row r="387" outlineLevel="3" ht="15" customHeight="1">
       <c r="A387" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17586,7 +17586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" ht="15" customHeight="1">
+    <row r="388" outlineLevel="3" ht="15" customHeight="1">
       <c r="A388" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17630,7 +17630,7 @@
         <v>6124.5</v>
       </c>
     </row>
-    <row r="389" ht="15" customHeight="1">
+    <row r="389" outlineLevel="3" ht="15" customHeight="1">
       <c r="A389" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17674,7 +17674,7 @@
         <v>7384.888888888889</v>
       </c>
     </row>
-    <row r="390" ht="15" customHeight="1">
+    <row r="390" outlineLevel="3" ht="15" customHeight="1">
       <c r="A390" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17718,7 +17718,7 @@
         <v>4314.9</v>
       </c>
     </row>
-    <row r="391" ht="15" customHeight="1">
+    <row r="391" outlineLevel="3" ht="15" customHeight="1">
       <c r="A391" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17762,7 +17762,7 @@
         <v>14699.13333333333</v>
       </c>
     </row>
-    <row r="392" ht="15" customHeight="1">
+    <row r="392" outlineLevel="3" ht="15" customHeight="1">
       <c r="A392" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17806,7 +17806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" ht="15" customHeight="1">
+    <row r="393" outlineLevel="3" ht="15" customHeight="1">
       <c r="A393" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17850,7 +17850,7 @@
         <v>16813.33333333333</v>
       </c>
     </row>
-    <row r="394" ht="15" customHeight="1">
+    <row r="394" outlineLevel="3" ht="15" customHeight="1">
       <c r="A394" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" ht="15" customHeight="1">
+    <row r="395" outlineLevel="3" ht="15" customHeight="1">
       <c r="A395" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17938,7 +17938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" ht="15" customHeight="1">
+    <row r="396" outlineLevel="3" ht="15" customHeight="1">
       <c r="A396" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -17982,7 +17982,7 @@
         <v>20142.25</v>
       </c>
     </row>
-    <row r="397" ht="15" customHeight="1">
+    <row r="397" outlineLevel="3" ht="15" customHeight="1">
       <c r="A397" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18026,7 +18026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" ht="15" customHeight="1">
+    <row r="398" outlineLevel="3" ht="15" customHeight="1">
       <c r="A398" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18070,7 +18070,7 @@
         <v>2842</v>
       </c>
     </row>
-    <row r="399" ht="15" customHeight="1">
+    <row r="399" outlineLevel="3" ht="15" customHeight="1">
       <c r="A399" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18114,7 +18114,7 @@
         <v>35252.57142857143</v>
       </c>
     </row>
-    <row r="400" ht="15" customHeight="1">
+    <row r="400" outlineLevel="3" ht="15" customHeight="1">
       <c r="A400" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18158,7 +18158,7 @@
         <v>63889.99999999999</v>
       </c>
     </row>
-    <row r="401" ht="15" customHeight="1">
+    <row r="401" outlineLevel="3" ht="15" customHeight="1">
       <c r="A401" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18202,7 +18202,7 @@
         <v>31304.625</v>
       </c>
     </row>
-    <row r="402" ht="15" customHeight="1">
+    <row r="402" outlineLevel="3" ht="15" customHeight="1">
       <c r="A402" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18246,7 +18246,7 @@
         <v>12876</v>
       </c>
     </row>
-    <row r="403" ht="15" customHeight="1">
+    <row r="403" outlineLevel="3" ht="15" customHeight="1">
       <c r="A403" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18290,7 +18290,7 @@
         <v>13842.66666666667</v>
       </c>
     </row>
-    <row r="404" ht="15" customHeight="1">
+    <row r="404" outlineLevel="3" ht="15" customHeight="1">
       <c r="A404" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18334,7 +18334,7 @@
         <v>5234.5</v>
       </c>
     </row>
-    <row r="405" ht="15" customHeight="1">
+    <row r="405" outlineLevel="3" ht="15" customHeight="1">
       <c r="A405" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18378,7 +18378,7 @@
         <v>23077.43055555555</v>
       </c>
     </row>
-    <row r="406" ht="15" customHeight="1">
+    <row r="406" outlineLevel="3" ht="15" customHeight="1">
       <c r="A406" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18422,7 +18422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" ht="15" customHeight="1">
+    <row r="407" outlineLevel="3" ht="15" customHeight="1">
       <c r="A407" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" ht="15" customHeight="1">
+    <row r="408" outlineLevel="3" ht="15" customHeight="1">
       <c r="A408" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18510,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" ht="15" customHeight="1">
+    <row r="409" outlineLevel="3" ht="15" customHeight="1">
       <c r="A409" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18554,7 +18554,7 @@
         <v>2968.8</v>
       </c>
     </row>
-    <row r="410" ht="15" customHeight="1">
+    <row r="410" outlineLevel="3" ht="15" customHeight="1">
       <c r="A410" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18598,7 +18598,7 @@
         <v>39692.58333333334</v>
       </c>
     </row>
-    <row r="411" ht="15" customHeight="1">
+    <row r="411" outlineLevel="3" ht="15" customHeight="1">
       <c r="A411" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18642,7 +18642,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="412" ht="15" customHeight="1">
+    <row r="412" outlineLevel="3" ht="15" customHeight="1">
       <c r="A412" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18686,7 +18686,7 @@
         <v>5321</v>
       </c>
     </row>
-    <row r="413" ht="15" customHeight="1">
+    <row r="413" outlineLevel="3" ht="15" customHeight="1">
       <c r="A413" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18730,7 +18730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" ht="15" customHeight="1">
+    <row r="414" outlineLevel="3" ht="15" customHeight="1">
       <c r="A414" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18774,7 +18774,7 @@
         <v>15371.4</v>
       </c>
     </row>
-    <row r="415" ht="15" customHeight="1">
+    <row r="415" outlineLevel="3" ht="15" customHeight="1">
       <c r="A415" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" ht="15" customHeight="1">
+    <row r="416" outlineLevel="3" ht="15" customHeight="1">
       <c r="A416" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18862,7 +18862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" ht="15" customHeight="1">
+    <row r="417" outlineLevel="2" ht="15" customHeight="1">
       <c r="A417" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18906,7 +18906,7 @@
         <v>8308.875</v>
       </c>
     </row>
-    <row r="418" ht="15" customHeight="1">
+    <row r="418" outlineLevel="3" ht="15" customHeight="1">
       <c r="A418" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" ht="15" customHeight="1">
+    <row r="419" outlineLevel="3" ht="15" customHeight="1">
       <c r="A419" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -18994,7 +18994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" ht="15" customHeight="1">
+    <row r="420" outlineLevel="3" ht="15" customHeight="1">
       <c r="A420" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19038,7 +19038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" ht="15" customHeight="1">
+    <row r="421" outlineLevel="3" ht="15" customHeight="1">
       <c r="A421" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19082,7 +19082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" ht="15" customHeight="1">
+    <row r="422" outlineLevel="3" ht="15" customHeight="1">
       <c r="A422" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19126,7 +19126,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="423" ht="15" customHeight="1">
+    <row r="423" outlineLevel="3" ht="15" customHeight="1">
       <c r="A423" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" ht="15" customHeight="1">
+    <row r="424" outlineLevel="3" ht="15" customHeight="1">
       <c r="A424" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19214,7 +19214,7 @@
         <v>12138</v>
       </c>
     </row>
-    <row r="425" ht="15" customHeight="1">
+    <row r="425" outlineLevel="3" ht="15" customHeight="1">
       <c r="A425" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19258,7 +19258,7 @@
         <v>48912.375</v>
       </c>
     </row>
-    <row r="426" ht="15" customHeight="1">
+    <row r="426" outlineLevel="3" ht="15" customHeight="1">
       <c r="A426" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19302,7 +19302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" ht="15" customHeight="1">
+    <row r="427" outlineLevel="3" ht="15" customHeight="1">
       <c r="A427" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19346,7 +19346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" ht="15" customHeight="1">
+    <row r="428" outlineLevel="3" ht="15" customHeight="1">
       <c r="A428" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19390,7 +19390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" ht="15" customHeight="1">
+    <row r="429" outlineLevel="3" ht="15" customHeight="1">
       <c r="A429" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19434,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" ht="15" customHeight="1">
+    <row r="430" outlineLevel="3" ht="15" customHeight="1">
       <c r="A430" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19478,7 +19478,7 @@
         <v>3595.833333333333</v>
       </c>
     </row>
-    <row r="431" ht="15" customHeight="1">
+    <row r="431" outlineLevel="3" ht="15" customHeight="1">
       <c r="A431" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19522,7 +19522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" ht="15" customHeight="1">
+    <row r="432" outlineLevel="3" ht="15" customHeight="1">
       <c r="A432" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19566,7 +19566,7 @@
         <v>11133</v>
       </c>
     </row>
-    <row r="433" ht="15" customHeight="1">
+    <row r="433" outlineLevel="3" ht="15" customHeight="1">
       <c r="A433" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19610,7 +19610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" ht="15" customHeight="1">
+    <row r="434" outlineLevel="3" ht="15" customHeight="1">
       <c r="A434" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19654,7 +19654,7 @@
         <v>8694</v>
       </c>
     </row>
-    <row r="435" ht="15" customHeight="1">
+    <row r="435" outlineLevel="3" ht="15" customHeight="1">
       <c r="A435" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19698,7 +19698,7 @@
         <v>11820</v>
       </c>
     </row>
-    <row r="436" ht="15" customHeight="1">
+    <row r="436" outlineLevel="3" ht="15" customHeight="1">
       <c r="A436" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19742,7 +19742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" ht="15" customHeight="1">
+    <row r="437" outlineLevel="3" ht="15" customHeight="1">
       <c r="A437" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19786,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" ht="15" customHeight="1">
+    <row r="438" outlineLevel="3" ht="15" customHeight="1">
       <c r="A438" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19830,7 +19830,7 @@
         <v>3940</v>
       </c>
     </row>
-    <row r="439" ht="15" customHeight="1">
+    <row r="439" outlineLevel="3" ht="15" customHeight="1">
       <c r="A439" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19874,7 +19874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" ht="15" customHeight="1">
+    <row r="440" outlineLevel="3" ht="15" customHeight="1">
       <c r="A440" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19918,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" ht="15" customHeight="1">
+    <row r="441" outlineLevel="3" ht="15" customHeight="1">
       <c r="A441" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" ht="15" customHeight="1">
+    <row r="442" outlineLevel="3" ht="15" customHeight="1">
       <c r="A442" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20006,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" ht="15" customHeight="1">
+    <row r="443" outlineLevel="3" ht="15" customHeight="1">
       <c r="A443" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20050,7 +20050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" ht="15" customHeight="1">
+    <row r="444" outlineLevel="3" ht="15" customHeight="1">
       <c r="A444" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20094,7 +20094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" ht="15" customHeight="1">
+    <row r="445" outlineLevel="3" ht="15" customHeight="1">
       <c r="A445" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" ht="15" customHeight="1">
+    <row r="446" outlineLevel="3" ht="15" customHeight="1">
       <c r="A446" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20182,7 +20182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" ht="15" customHeight="1">
+    <row r="447" outlineLevel="3" ht="15" customHeight="1">
       <c r="A447" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20226,7 +20226,7 @@
         <v>13760</v>
       </c>
     </row>
-    <row r="448" ht="15" customHeight="1">
+    <row r="448" outlineLevel="3" ht="15" customHeight="1">
       <c r="A448" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20270,7 +20270,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="449" ht="15" customHeight="1">
+    <row r="449" outlineLevel="3" ht="15" customHeight="1">
       <c r="A449" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20314,7 +20314,7 @@
         <v>15504</v>
       </c>
     </row>
-    <row r="450" ht="15" customHeight="1">
+    <row r="450" outlineLevel="3" ht="15" customHeight="1">
       <c r="A450" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20358,7 +20358,7 @@
         <v>26180</v>
       </c>
     </row>
-    <row r="451" ht="15" customHeight="1">
+    <row r="451" outlineLevel="3" ht="15" customHeight="1">
       <c r="A451" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20402,7 +20402,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="452" ht="15" customHeight="1">
+    <row r="452" outlineLevel="3" ht="15" customHeight="1">
       <c r="A452" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20446,7 +20446,7 @@
         <v>27126</v>
       </c>
     </row>
-    <row r="453" ht="15" customHeight="1">
+    <row r="453" outlineLevel="3" ht="15" customHeight="1">
       <c r="A453" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20490,7 +20490,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="454" ht="15" customHeight="1">
+    <row r="454" outlineLevel="3" ht="15" customHeight="1">
       <c r="A454" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20534,7 +20534,7 @@
         <v>39182</v>
       </c>
     </row>
-    <row r="455" ht="15" customHeight="1">
+    <row r="455" outlineLevel="2" ht="15" customHeight="1">
       <c r="A455" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20578,7 +20578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" ht="15" customHeight="1">
+    <row r="456" outlineLevel="3" ht="15" customHeight="1">
       <c r="A456" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20622,7 +20622,7 @@
         <v>11102.4</v>
       </c>
     </row>
-    <row r="457" ht="15" customHeight="1">
+    <row r="457" outlineLevel="3" ht="15" customHeight="1">
       <c r="A457" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20666,7 +20666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" ht="15" customHeight="1">
+    <row r="458" outlineLevel="3" ht="15" customHeight="1">
       <c r="A458" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" ht="15" customHeight="1">
+    <row r="459" outlineLevel="2" ht="15" customHeight="1">
       <c r="A459" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" ht="15" customHeight="1">
+    <row r="460" outlineLevel="3" ht="15" customHeight="1">
       <c r="A460" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20798,7 +20798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" ht="15" customHeight="1">
+    <row r="461" outlineLevel="3" ht="15" customHeight="1">
       <c r="A461" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20842,7 +20842,7 @@
         <v>33898.47222222222</v>
       </c>
     </row>
-    <row r="462" ht="15" customHeight="1">
+    <row r="462" outlineLevel="3" ht="15" customHeight="1">
       <c r="A462" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20886,7 +20886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" ht="15" customHeight="1">
+    <row r="463" outlineLevel="3" ht="15" customHeight="1">
       <c r="A463" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20930,7 +20930,7 @@
         <v>23528</v>
       </c>
     </row>
-    <row r="464" ht="15" customHeight="1">
+    <row r="464" outlineLevel="3" ht="15" customHeight="1">
       <c r="A464" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -20974,7 +20974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" ht="15" customHeight="1">
+    <row r="465" outlineLevel="3" ht="15" customHeight="1">
       <c r="A465" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21018,7 +21018,7 @@
         <v>25204</v>
       </c>
     </row>
-    <row r="466" ht="15" customHeight="1">
+    <row r="466" outlineLevel="3" ht="15" customHeight="1">
       <c r="A466" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21062,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" ht="15" customHeight="1">
+    <row r="467" outlineLevel="3" ht="15" customHeight="1">
       <c r="A467" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21106,7 +21106,7 @@
         <v>9214.285714285714</v>
       </c>
     </row>
-    <row r="468" ht="15" customHeight="1">
+    <row r="468" outlineLevel="3" ht="15" customHeight="1">
       <c r="A468" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21150,7 +21150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" ht="15" customHeight="1">
+    <row r="469" outlineLevel="3" ht="15" customHeight="1">
       <c r="A469" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21194,7 +21194,7 @@
         <v>24879.83333333333</v>
       </c>
     </row>
-    <row r="470" ht="15" customHeight="1">
+    <row r="470" outlineLevel="3" ht="15" customHeight="1">
       <c r="A470" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21238,7 +21238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" ht="15" customHeight="1">
+    <row r="471" outlineLevel="3" ht="15" customHeight="1">
       <c r="A471" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21282,7 +21282,7 @@
         <v>8651.416666666668</v>
       </c>
     </row>
-    <row r="472" ht="15" customHeight="1">
+    <row r="472" outlineLevel="3" ht="15" customHeight="1">
       <c r="A472" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" ht="15" customHeight="1">
+    <row r="473" outlineLevel="3" ht="15" customHeight="1">
       <c r="A473" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" ht="15" customHeight="1">
+    <row r="474" outlineLevel="3" ht="15" customHeight="1">
       <c r="A474" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21414,7 +21414,7 @@
         <v>11689</v>
       </c>
     </row>
-    <row r="475" ht="15" customHeight="1">
+    <row r="475" outlineLevel="3" ht="15" customHeight="1">
       <c r="A475" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21458,7 +21458,7 @@
         <v>58445</v>
       </c>
     </row>
-    <row r="476" ht="15" customHeight="1">
+    <row r="476" outlineLevel="3" ht="15" customHeight="1">
       <c r="A476" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21502,7 +21502,7 @@
         <v>14611.25</v>
       </c>
     </row>
-    <row r="477" ht="15" customHeight="1">
+    <row r="477" outlineLevel="3" ht="15" customHeight="1">
       <c r="A477" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21546,7 +21546,7 @@
         <v>39200</v>
       </c>
     </row>
-    <row r="478" ht="15" customHeight="1">
+    <row r="478" outlineLevel="2" ht="15" customHeight="1">
       <c r="A478" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21590,7 +21590,7 @@
         <v>14969</v>
       </c>
     </row>
-    <row r="479" ht="15" customHeight="1">
+    <row r="479" outlineLevel="3" ht="15" customHeight="1">
       <c r="A479" s="20" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21634,7 +21634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" ht="15" customHeight="1">
+    <row r="480" outlineLevel="3" ht="15" customHeight="1">
       <c r="A480" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21678,7 +21678,7 @@
         <v>23378</v>
       </c>
     </row>
-    <row r="481" ht="15" customHeight="1">
+    <row r="481" outlineLevel="3" ht="15" customHeight="1">
       <c r="A481" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21722,7 +21722,7 @@
         <v>2750.6</v>
       </c>
     </row>
-    <row r="482" ht="15" customHeight="1">
+    <row r="482" outlineLevel="3" ht="15" customHeight="1">
       <c r="A482" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" ht="15" customHeight="1">
+    <row r="483" outlineLevel="3" ht="15" customHeight="1">
       <c r="A483" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21810,7 +21810,7 @@
         <v>9547</v>
       </c>
     </row>
-    <row r="484" ht="15" customHeight="1">
+    <row r="484" outlineLevel="3" ht="15" customHeight="1">
       <c r="A484" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21854,7 +21854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" ht="15" customHeight="1">
+    <row r="485" outlineLevel="3" ht="15" customHeight="1">
       <c r="A485" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21898,7 +21898,7 @@
         <v>30551.66666666666</v>
       </c>
     </row>
-    <row r="486" ht="15" customHeight="1">
+    <row r="486" outlineLevel="3" ht="15" customHeight="1">
       <c r="A486" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21942,7 +21942,7 @@
         <v>11754</v>
       </c>
     </row>
-    <row r="487" ht="15" customHeight="1">
+    <row r="487" outlineLevel="3" ht="15" customHeight="1">
       <c r="A487" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -21986,7 +21986,7 @@
         <v>3909.666666666667</v>
       </c>
     </row>
-    <row r="488" ht="15" customHeight="1">
+    <row r="488" outlineLevel="3" ht="15" customHeight="1">
       <c r="A488" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22030,7 +22030,7 @@
         <v>15646.8</v>
       </c>
     </row>
-    <row r="489" ht="15" customHeight="1">
+    <row r="489" outlineLevel="3" ht="15" customHeight="1">
       <c r="A489" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" ht="15" customHeight="1">
+    <row r="490" outlineLevel="3" ht="15" customHeight="1">
       <c r="A490" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22118,7 +22118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" ht="15" customHeight="1">
+    <row r="491" outlineLevel="3" ht="15" customHeight="1">
       <c r="A491" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22162,7 +22162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" ht="15" customHeight="1">
+    <row r="492" outlineLevel="3" ht="15" customHeight="1">
       <c r="A492" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22206,7 +22206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" ht="15" customHeight="1">
+    <row r="493" outlineLevel="3" ht="15" customHeight="1">
       <c r="A493" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22250,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" ht="15" customHeight="1">
+    <row r="494" outlineLevel="3" ht="15" customHeight="1">
       <c r="A494" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" ht="15" customHeight="1">
+    <row r="495" outlineLevel="3" ht="15" customHeight="1">
       <c r="A495" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22338,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" ht="15" customHeight="1">
+    <row r="496" outlineLevel="3" ht="15" customHeight="1">
       <c r="A496" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22382,7 +22382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" ht="15" customHeight="1">
+    <row r="497" outlineLevel="3" ht="15" customHeight="1">
       <c r="A497" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22426,7 +22426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" ht="15" customHeight="1">
+    <row r="498" outlineLevel="3" ht="15" customHeight="1">
       <c r="A498" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22470,7 +22470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" ht="15" customHeight="1">
+    <row r="499" outlineLevel="3" ht="15" customHeight="1">
       <c r="A499" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22514,7 +22514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" ht="15" customHeight="1">
+    <row r="500" outlineLevel="3" ht="15" customHeight="1">
       <c r="A500" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" ht="15" customHeight="1">
+    <row r="501" outlineLevel="3" ht="15" customHeight="1">
       <c r="A501" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22602,7 +22602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" ht="15" customHeight="1">
+    <row r="502" outlineLevel="3" ht="15" customHeight="1">
       <c r="A502" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22646,7 +22646,7 @@
         <v>6684.333333333333</v>
       </c>
     </row>
-    <row r="503" ht="15" customHeight="1">
+    <row r="503" outlineLevel="3" ht="15" customHeight="1">
       <c r="A503" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22690,7 +22690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" ht="15" customHeight="1">
+    <row r="504" outlineLevel="3" ht="15" customHeight="1">
       <c r="A504" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22734,7 +22734,7 @@
         <v>11808</v>
       </c>
     </row>
-    <row r="505" ht="15" customHeight="1">
+    <row r="505" outlineLevel="2" ht="15" customHeight="1">
       <c r="A505" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22778,7 +22778,7 @@
         <v>19315.71428571429</v>
       </c>
     </row>
-    <row r="506" ht="15" customHeight="1">
+    <row r="506" outlineLevel="3" ht="15" customHeight="1">
       <c r="A506" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" ht="15" customHeight="1">
+    <row r="507" outlineLevel="3" ht="15" customHeight="1">
       <c r="A507" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22866,7 +22866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" ht="15" customHeight="1">
+    <row r="508" outlineLevel="3" ht="15" customHeight="1">
       <c r="A508" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" ht="15" customHeight="1">
+    <row r="509" outlineLevel="3" ht="15" customHeight="1">
       <c r="A509" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22954,7 +22954,7 @@
         <v>14490</v>
       </c>
     </row>
-    <row r="510" ht="15" customHeight="1">
+    <row r="510" outlineLevel="3" ht="15" customHeight="1">
       <c r="A510" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -22998,7 +22998,7 @@
         <v>17730</v>
       </c>
     </row>
-    <row r="511" ht="15" customHeight="1">
+    <row r="511" outlineLevel="3" ht="15" customHeight="1">
       <c r="A511" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23042,7 +23042,7 @@
         <v>27756</v>
       </c>
     </row>
-    <row r="512" ht="15" customHeight="1">
+    <row r="512" outlineLevel="3" ht="15" customHeight="1">
       <c r="A512" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23086,7 +23086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" ht="15" customHeight="1">
+    <row r="513" outlineLevel="3" ht="15" customHeight="1">
       <c r="A513" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23130,7 +23130,7 @@
         <v>37901.5</v>
       </c>
     </row>
-    <row r="514" ht="15" customHeight="1">
+    <row r="514" outlineLevel="3" ht="15" customHeight="1">
       <c r="A514" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23174,7 +23174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" ht="15" customHeight="1">
+    <row r="515" outlineLevel="3" ht="15" customHeight="1">
       <c r="A515" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23218,7 +23218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" ht="15" customHeight="1">
+    <row r="516" outlineLevel="3" ht="15" customHeight="1">
       <c r="A516" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23262,7 +23262,7 @@
         <v>8746.5</v>
       </c>
     </row>
-    <row r="517" ht="15" customHeight="1">
+    <row r="517" outlineLevel="3" ht="15" customHeight="1">
       <c r="A517" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23306,7 +23306,7 @@
         <v>21060</v>
       </c>
     </row>
-    <row r="518" ht="15" customHeight="1">
+    <row r="518" outlineLevel="3" ht="15" customHeight="1">
       <c r="A518" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23350,7 +23350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" ht="15" customHeight="1">
+    <row r="519" outlineLevel="3" ht="15" customHeight="1">
       <c r="A519" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23394,7 +23394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" ht="15" customHeight="1">
+    <row r="520" outlineLevel="3" ht="15" customHeight="1">
       <c r="A520" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23438,7 +23438,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="521" ht="15" customHeight="1">
+    <row r="521" outlineLevel="3" ht="15" customHeight="1">
       <c r="A521" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" ht="15" customHeight="1">
+    <row r="522" outlineLevel="3" ht="15" customHeight="1">
       <c r="A522" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23526,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" ht="15" customHeight="1">
+    <row r="523" outlineLevel="3" ht="15" customHeight="1">
       <c r="A523" t="inlineStr">
         <is>
           <t>Bodega</t>
@@ -23570,7 +23570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" ht="15" customHeight="1">
+    <row r="524" outlineLevel="3" ht="15" customHeight="1">
       <c r="A524" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23614,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" ht="15" customHeight="1">
+    <row r="525" outlineLevel="3" ht="15" customHeight="1">
       <c r="A525" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23658,7 +23658,7 @@
         <v>-2557</v>
       </c>
     </row>
-    <row r="526" ht="15" customHeight="1">
+    <row r="526" outlineLevel="3" ht="15" customHeight="1">
       <c r="A526" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23702,7 +23702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" ht="15" customHeight="1">
+    <row r="527" outlineLevel="3" ht="15" customHeight="1">
       <c r="A527" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23746,7 +23746,7 @@
         <v>945.9</v>
       </c>
     </row>
-    <row r="528" ht="15" customHeight="1">
+    <row r="528" outlineLevel="3" ht="15" customHeight="1">
       <c r="A528" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23790,7 +23790,7 @@
         <v>7122.916666666667</v>
       </c>
     </row>
-    <row r="529" ht="15" customHeight="1">
+    <row r="529" outlineLevel="3" ht="15" customHeight="1">
       <c r="A529" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23834,7 +23834,7 @@
         <v>4397.916666666667</v>
       </c>
     </row>
-    <row r="530" ht="15" customHeight="1">
+    <row r="530" outlineLevel="3" ht="15" customHeight="1">
       <c r="A530" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23878,7 +23878,7 @@
         <v>23517.76</v>
       </c>
     </row>
-    <row r="531" ht="15" customHeight="1">
+    <row r="531" outlineLevel="3" ht="15" customHeight="1">
       <c r="A531" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23922,7 +23922,7 @@
         <v>7702.5</v>
       </c>
     </row>
-    <row r="532" ht="15" customHeight="1">
+    <row r="532" outlineLevel="3" ht="15" customHeight="1">
       <c r="A532" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -23966,7 +23966,7 @@
         <v>7702.5</v>
       </c>
     </row>
-    <row r="533" ht="15" customHeight="1">
+    <row r="533" outlineLevel="2" ht="15" customHeight="1">
       <c r="A533" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24010,7 +24010,7 @@
         <v>15644.2</v>
       </c>
     </row>
-    <row r="534" ht="15" customHeight="1">
+    <row r="534" outlineLevel="3" ht="15" customHeight="1">
       <c r="A534" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24054,7 +24054,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="535" ht="15" customHeight="1">
+    <row r="535" outlineLevel="3" ht="15" customHeight="1">
       <c r="A535" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" ht="15" customHeight="1">
+    <row r="536" outlineLevel="2" ht="15" customHeight="1">
       <c r="A536" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" ht="15" customHeight="1">
+    <row r="537" outlineLevel="3" ht="15" customHeight="1">
       <c r="A537" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" ht="15" customHeight="1">
+    <row r="538" outlineLevel="3" ht="15" customHeight="1">
       <c r="A538" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24230,7 +24230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" ht="15" customHeight="1">
+    <row r="539" outlineLevel="3" ht="15" customHeight="1">
       <c r="A539" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" ht="15" customHeight="1">
+    <row r="540" outlineLevel="3" ht="15" customHeight="1">
       <c r="A540" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24318,7 +24318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" ht="15" customHeight="1">
+    <row r="541" outlineLevel="3" ht="15" customHeight="1">
       <c r="A541" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24362,7 +24362,7 @@
         <v>6487.200000000001</v>
       </c>
     </row>
-    <row r="542" ht="15" customHeight="1">
+    <row r="542" outlineLevel="3" ht="15" customHeight="1">
       <c r="A542" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24406,7 +24406,7 @@
         <v>4322.25</v>
       </c>
     </row>
-    <row r="543" ht="15" customHeight="1">
+    <row r="543" outlineLevel="3" ht="15" customHeight="1">
       <c r="A543" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24450,7 +24450,7 @@
         <v>9693.449999999999</v>
       </c>
     </row>
-    <row r="544" ht="15" customHeight="1">
+    <row r="544" outlineLevel="3" ht="15" customHeight="1">
       <c r="A544" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24494,7 +24494,7 @@
         <v>3480</v>
       </c>
     </row>
-    <row r="545" ht="15" customHeight="1">
+    <row r="545" outlineLevel="3" ht="15" customHeight="1">
       <c r="A545" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24538,7 +24538,7 @@
         <v>2952.083333333333</v>
       </c>
     </row>
-    <row r="546" ht="15" customHeight="1">
+    <row r="546" outlineLevel="3" ht="15" customHeight="1">
       <c r="A546" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24582,7 +24582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" ht="15" customHeight="1">
+    <row r="547" outlineLevel="3" ht="15" customHeight="1">
       <c r="A547" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24626,7 +24626,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="548" ht="15" customHeight="1">
+    <row r="548" outlineLevel="3" ht="15" customHeight="1">
       <c r="A548" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24670,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" ht="15" customHeight="1">
+    <row r="549" outlineLevel="3" ht="15" customHeight="1">
       <c r="A549" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24714,7 +24714,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="550" ht="15" customHeight="1">
+    <row r="550" outlineLevel="2" ht="15" customHeight="1">
       <c r="A550" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24758,7 +24758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" ht="15" customHeight="1">
+    <row r="551" outlineLevel="3" ht="15" customHeight="1">
       <c r="A551" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24802,7 +24802,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="552" ht="15" customHeight="1">
+    <row r="552" outlineLevel="2" ht="15" customHeight="1">
       <c r="A552" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24846,7 +24846,7 @@
         <v>17289</v>
       </c>
     </row>
-    <row r="553" ht="15" customHeight="1">
+    <row r="553" outlineLevel="3" ht="15" customHeight="1">
       <c r="A553" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24890,7 +24890,7 @@
         <v>10860.11111111111</v>
       </c>
     </row>
-    <row r="554" ht="15" customHeight="1">
+    <row r="554" outlineLevel="3" ht="15" customHeight="1">
       <c r="A554" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24934,7 +24934,7 @@
         <v>11338.05555555555</v>
       </c>
     </row>
-    <row r="555" ht="15" customHeight="1">
+    <row r="555" outlineLevel="3" ht="15" customHeight="1">
       <c r="A555" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -24978,7 +24978,7 @@
         <v>8479.111111111111</v>
       </c>
     </row>
-    <row r="556" ht="15" customHeight="1">
+    <row r="556" outlineLevel="3" ht="15" customHeight="1">
       <c r="A556" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" ht="15" customHeight="1">
+    <row r="557" outlineLevel="3" ht="15" customHeight="1">
       <c r="A557" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25066,7 +25066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" ht="15" customHeight="1">
+    <row r="558" outlineLevel="3" ht="15" customHeight="1">
       <c r="A558" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25110,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" ht="15" customHeight="1">
+    <row r="559" outlineLevel="3" ht="15" customHeight="1">
       <c r="A559" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25154,7 +25154,7 @@
         <v>7841.6</v>
       </c>
     </row>
-    <row r="560" ht="15" customHeight="1">
+    <row r="560" outlineLevel="3" ht="15" customHeight="1">
       <c r="A560" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" ht="15" customHeight="1">
+    <row r="561" outlineLevel="3" ht="15" customHeight="1">
       <c r="A561" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" ht="15" customHeight="1">
+    <row r="562" outlineLevel="2" ht="15" customHeight="1">
       <c r="A562" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25286,7 +25286,7 @@
         <v>4901</v>
       </c>
     </row>
-    <row r="563" ht="15" customHeight="1">
+    <row r="563" outlineLevel="3" ht="15" customHeight="1">
       <c r="A563" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25330,7 +25330,7 @@
         <v>-5354.75</v>
       </c>
     </row>
-    <row r="564" ht="15" customHeight="1">
+    <row r="564" outlineLevel="3" ht="15" customHeight="1">
       <c r="A564" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25374,7 +25374,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="565" ht="15" customHeight="1">
+    <row r="565" outlineLevel="3" ht="15" customHeight="1">
       <c r="A565" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25418,7 +25418,7 @@
         <v>8550</v>
       </c>
     </row>
-    <row r="566" ht="15" customHeight="1">
+    <row r="566" outlineLevel="3" ht="15" customHeight="1">
       <c r="A566" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25462,7 +25462,7 @@
         <v>14291.66666666667</v>
       </c>
     </row>
-    <row r="567" ht="15" customHeight="1">
+    <row r="567" outlineLevel="3" ht="15" customHeight="1">
       <c r="A567" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25506,7 +25506,7 @@
         <v>2232.638888888889</v>
       </c>
     </row>
-    <row r="568" ht="15" customHeight="1">
+    <row r="568" outlineLevel="3" ht="15" customHeight="1">
       <c r="A568" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25550,7 +25550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" ht="15" customHeight="1">
+    <row r="569" outlineLevel="3" ht="15" customHeight="1">
       <c r="A569" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25594,7 +25594,7 @@
         <v>91199.59999999999</v>
       </c>
     </row>
-    <row r="570" ht="15" customHeight="1">
+    <row r="570" outlineLevel="3" ht="15" customHeight="1">
       <c r="A570" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25638,7 +25638,7 @@
         <v>74099.71111111112</v>
       </c>
     </row>
-    <row r="571" ht="15" customHeight="1">
+    <row r="571" outlineLevel="3" ht="15" customHeight="1">
       <c r="A571" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25682,7 +25682,7 @@
         <v>98343.90000000001</v>
       </c>
     </row>
-    <row r="572" ht="15" customHeight="1">
+    <row r="572" outlineLevel="3" ht="15" customHeight="1">
       <c r="A572" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25726,7 +25726,7 @@
         <v>103807.45</v>
       </c>
     </row>
-    <row r="573" ht="15" customHeight="1">
+    <row r="573" outlineLevel="3" ht="15" customHeight="1">
       <c r="A573" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25770,7 +25770,7 @@
         <v>124341.6</v>
       </c>
     </row>
-    <row r="574" ht="15" customHeight="1">
+    <row r="574" outlineLevel="3" ht="15" customHeight="1">
       <c r="A574" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25814,7 +25814,7 @@
         <v>93257.28</v>
       </c>
     </row>
-    <row r="575" ht="15" customHeight="1">
+    <row r="575" outlineLevel="2" ht="15" customHeight="1">
       <c r="A575" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25858,7 +25858,7 @@
         <v>119161.85</v>
       </c>
     </row>
-    <row r="576" ht="15" customHeight="1">
+    <row r="576" outlineLevel="1" ht="15" customHeight="1">
       <c r="A576" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25946,7 +25946,7 @@
         <v>46628.4</v>
       </c>
     </row>
-    <row r="578" ht="15" customHeight="1">
+    <row r="578" outlineLevel="3" ht="15" customHeight="1">
       <c r="A578" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -25990,7 +25990,7 @@
         <v>67352.34999999999</v>
       </c>
     </row>
-    <row r="579" ht="15" customHeight="1">
+    <row r="579" outlineLevel="3" ht="15" customHeight="1">
       <c r="A579" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26034,7 +26034,7 @@
         <v>100319.6</v>
       </c>
     </row>
-    <row r="580" ht="15" customHeight="1">
+    <row r="580" outlineLevel="3" ht="15" customHeight="1">
       <c r="A580" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26078,7 +26078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" ht="15" customHeight="1">
+    <row r="581" outlineLevel="3" ht="15" customHeight="1">
       <c r="A581" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26122,7 +26122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" ht="15" customHeight="1">
+    <row r="582" outlineLevel="3" ht="15" customHeight="1">
       <c r="A582" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26166,7 +26166,7 @@
         <v>99540.34999999999</v>
       </c>
     </row>
-    <row r="583" ht="15" customHeight="1">
+    <row r="583" outlineLevel="3" ht="15" customHeight="1">
       <c r="A583" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26210,7 +26210,7 @@
         <v>109011.5</v>
       </c>
     </row>
-    <row r="584" ht="15" customHeight="1">
+    <row r="584" outlineLevel="2" ht="15" customHeight="1">
       <c r="A584" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26254,7 +26254,7 @@
         <v>113039.6</v>
       </c>
     </row>
-    <row r="585" ht="15" customHeight="1">
+    <row r="585" outlineLevel="3" ht="15" customHeight="1">
       <c r="A585" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26298,7 +26298,7 @@
         <v>114000</v>
       </c>
     </row>
-    <row r="586" ht="15" customHeight="1">
+    <row r="586" outlineLevel="2" ht="15" customHeight="1">
       <c r="A586" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26342,7 +26342,7 @@
         <v>75999</v>
       </c>
     </row>
-    <row r="587" ht="15" customHeight="1">
+    <row r="587" outlineLevel="3" ht="15" customHeight="1">
       <c r="A587" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26386,7 +26386,7 @@
         <v>72199.28750000001</v>
       </c>
     </row>
-    <row r="588" ht="15" customHeight="1">
+    <row r="588" outlineLevel="3" ht="15" customHeight="1">
       <c r="A588" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26430,7 +26430,7 @@
         <v>107387.525</v>
       </c>
     </row>
-    <row r="589" ht="15" customHeight="1">
+    <row r="589" outlineLevel="3" ht="15" customHeight="1">
       <c r="A589" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26474,7 +26474,7 @@
         <v>64598.3</v>
       </c>
     </row>
-    <row r="590" ht="15" customHeight="1">
+    <row r="590" outlineLevel="2" ht="15" customHeight="1">
       <c r="A590" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26518,7 +26518,7 @@
         <v>113371.96</v>
       </c>
     </row>
-    <row r="591" ht="15" customHeight="1">
+    <row r="591" outlineLevel="3" ht="15" customHeight="1">
       <c r="A591" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26562,7 +26562,7 @@
         <v>123238.3333333333</v>
       </c>
     </row>
-    <row r="592" ht="15" customHeight="1">
+    <row r="592" outlineLevel="2" ht="15" customHeight="1">
       <c r="A592" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26606,7 +26606,7 @@
         <v>96083.65999999999</v>
       </c>
     </row>
-    <row r="593" ht="15" customHeight="1">
+    <row r="593" outlineLevel="1" ht="15" customHeight="1">
       <c r="A593" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26650,7 +26650,7 @@
         <v>70103.25</v>
       </c>
     </row>
-    <row r="594" ht="15" customHeight="1">
+    <row r="594" outlineLevel="3" ht="15" customHeight="1">
       <c r="A594" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26694,7 +26694,7 @@
         <v>73997.875</v>
       </c>
     </row>
-    <row r="595" ht="15" customHeight="1">
+    <row r="595" outlineLevel="3" ht="15" customHeight="1">
       <c r="A595" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" ht="15" customHeight="1">
+    <row r="596" outlineLevel="2" ht="15" customHeight="1">
       <c r="A596" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26782,7 +26782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" ht="15" customHeight="1">
+    <row r="597" outlineLevel="3" ht="15" customHeight="1">
       <c r="A597" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26826,7 +26826,7 @@
         <v>83802.17999999999</v>
       </c>
     </row>
-    <row r="598" ht="15" customHeight="1">
+    <row r="598" outlineLevel="3" ht="15" customHeight="1">
       <c r="A598" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26870,7 +26870,7 @@
         <v>108450.1</v>
       </c>
     </row>
-    <row r="599" ht="15" customHeight="1">
+    <row r="599" outlineLevel="3" ht="15" customHeight="1">
       <c r="A599" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26914,7 +26914,7 @@
         <v>135183.56</v>
       </c>
     </row>
-    <row r="600" ht="15" customHeight="1">
+    <row r="600" outlineLevel="3" ht="15" customHeight="1">
       <c r="A600" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -26958,7 +26958,7 @@
         <v>95936.5</v>
       </c>
     </row>
-    <row r="601" ht="15" customHeight="1">
+    <row r="601" outlineLevel="3" ht="15" customHeight="1">
       <c r="A601" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27002,7 +27002,7 @@
         <v>88826.16</v>
       </c>
     </row>
-    <row r="602" ht="15" customHeight="1">
+    <row r="602" outlineLevel="3" ht="15" customHeight="1">
       <c r="A602" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27046,7 +27046,7 @@
         <v>95936.86666666667</v>
       </c>
     </row>
-    <row r="603" ht="15" customHeight="1">
+    <row r="603" outlineLevel="3" ht="15" customHeight="1">
       <c r="A603" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27090,7 +27090,7 @@
         <v>95759.65000000001</v>
       </c>
     </row>
-    <row r="604" ht="15" customHeight="1">
+    <row r="604" outlineLevel="3" ht="15" customHeight="1">
       <c r="A604" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27134,7 +27134,7 @@
         <v>159146.87</v>
       </c>
     </row>
-    <row r="605" ht="15" customHeight="1">
+    <row r="605" outlineLevel="3" ht="15" customHeight="1">
       <c r="A605" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27178,7 +27178,7 @@
         <v>39900</v>
       </c>
     </row>
-    <row r="606" ht="15" customHeight="1">
+    <row r="606" outlineLevel="3" ht="15" customHeight="1">
       <c r="A606" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27222,7 +27222,7 @@
         <v>141299.5833333333</v>
       </c>
     </row>
-    <row r="607" ht="15" customHeight="1">
+    <row r="607" outlineLevel="3" ht="15" customHeight="1">
       <c r="A607" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27266,7 +27266,7 @@
         <v>-970.7777777777777</v>
       </c>
     </row>
-    <row r="608" ht="15" customHeight="1">
+    <row r="608" outlineLevel="3" ht="15" customHeight="1">
       <c r="A608" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27310,7 +27310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" ht="15" customHeight="1">
+    <row r="609" outlineLevel="3" ht="15" customHeight="1">
       <c r="A609" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27354,7 +27354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" ht="15" customHeight="1">
+    <row r="610" outlineLevel="3" ht="15" customHeight="1">
       <c r="A610" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27398,7 +27398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" ht="15" customHeight="1">
+    <row r="611" outlineLevel="3" ht="15" customHeight="1">
       <c r="A611" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" ht="15" customHeight="1">
+    <row r="612" outlineLevel="3" ht="15" customHeight="1">
       <c r="A612" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27486,7 +27486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" ht="15" customHeight="1">
+    <row r="613" outlineLevel="3" ht="15" customHeight="1">
       <c r="A613" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27530,7 +27530,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="614" ht="15" customHeight="1">
+    <row r="614" outlineLevel="3" ht="15" customHeight="1">
       <c r="A614" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27574,7 +27574,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="615" ht="15" customHeight="1">
+    <row r="615" outlineLevel="3" ht="15" customHeight="1">
       <c r="A615" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27618,7 +27618,7 @@
         <v>-4400</v>
       </c>
     </row>
-    <row r="616" ht="15" customHeight="1">
+    <row r="616" outlineLevel="3" ht="15" customHeight="1">
       <c r="A616" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27662,7 +27662,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="617" ht="15" customHeight="1">
+    <row r="617" outlineLevel="3" ht="15" customHeight="1">
       <c r="A617" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27706,7 +27706,7 @@
         <v>-1580</v>
       </c>
     </row>
-    <row r="618" ht="15" customHeight="1">
+    <row r="618" outlineLevel="3" ht="15" customHeight="1">
       <c r="A618" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27750,7 +27750,7 @@
         <v>6320</v>
       </c>
     </row>
-    <row r="619" ht="15" customHeight="1">
+    <row r="619" outlineLevel="3" ht="15" customHeight="1">
       <c r="A619" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" ht="15" customHeight="1">
+    <row r="620" outlineLevel="3" ht="15" customHeight="1">
       <c r="A620" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27838,7 +27838,7 @@
         <v>37487.33333333334</v>
       </c>
     </row>
-    <row r="621" ht="15" customHeight="1">
+    <row r="621" outlineLevel="3" ht="15" customHeight="1">
       <c r="A621" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27882,7 +27882,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="622" ht="15" customHeight="1">
+    <row r="622" outlineLevel="3" ht="15" customHeight="1">
       <c r="A622" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27926,7 +27926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" ht="15" customHeight="1">
+    <row r="623" outlineLevel="3" ht="15" customHeight="1">
       <c r="A623" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -27970,7 +27970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" ht="15" customHeight="1">
+    <row r="624" outlineLevel="3" ht="15" customHeight="1">
       <c r="A624" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28014,7 +28014,7 @@
         <v>-5320</v>
       </c>
     </row>
-    <row r="625" ht="15" customHeight="1">
+    <row r="625" outlineLevel="3" ht="15" customHeight="1">
       <c r="A625" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28058,7 +28058,7 @@
         <v>5130</v>
       </c>
     </row>
-    <row r="626" ht="15" customHeight="1">
+    <row r="626" outlineLevel="3" ht="15" customHeight="1">
       <c r="A626" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28102,7 +28102,7 @@
         <v>22040</v>
       </c>
     </row>
-    <row r="627" ht="15" customHeight="1">
+    <row r="627" outlineLevel="3" ht="15" customHeight="1">
       <c r="A627" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28146,7 +28146,7 @@
         <v>7352</v>
       </c>
     </row>
-    <row r="628" ht="15" customHeight="1">
+    <row r="628" outlineLevel="3" ht="15" customHeight="1">
       <c r="A628" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28190,7 +28190,7 @@
         <v>-405</v>
       </c>
     </row>
-    <row r="629" ht="15" customHeight="1">
+    <row r="629" outlineLevel="2" ht="15" customHeight="1">
       <c r="A629" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28234,7 +28234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" ht="15" customHeight="1">
+    <row r="630" outlineLevel="1" ht="15" customHeight="1">
       <c r="A630" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" ht="15" customHeight="1">
+    <row r="631" outlineLevel="3" ht="15" customHeight="1">
       <c r="A631" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28322,7 +28322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" ht="15" customHeight="1">
+    <row r="632" outlineLevel="3" ht="15" customHeight="1">
       <c r="A632" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" ht="15" customHeight="1">
+    <row r="633" outlineLevel="3" ht="15" customHeight="1">
       <c r="A633" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28410,7 +28410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" ht="15" customHeight="1">
+    <row r="634" outlineLevel="3" ht="15" customHeight="1">
       <c r="A634" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28454,7 +28454,7 @@
         <v>7318.38333333334</v>
       </c>
     </row>
-    <row r="635" ht="15" customHeight="1">
+    <row r="635" outlineLevel="3" ht="15" customHeight="1">
       <c r="A635" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28498,7 +28498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" ht="15" customHeight="1">
+    <row r="636" outlineLevel="3" ht="15" customHeight="1">
       <c r="A636" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28542,7 +28542,7 @@
         <v>1005.2</v>
       </c>
     </row>
-    <row r="637" ht="15" customHeight="1">
+    <row r="637" outlineLevel="3" ht="15" customHeight="1">
       <c r="A637" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28586,7 +28586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" ht="15" customHeight="1">
+    <row r="638" outlineLevel="3" ht="15" customHeight="1">
       <c r="A638" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28630,7 +28630,7 @@
         <v>-4290</v>
       </c>
     </row>
-    <row r="639" ht="15" customHeight="1">
+    <row r="639" outlineLevel="3" ht="15" customHeight="1">
       <c r="A639" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28674,7 +28674,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="640" ht="15" customHeight="1">
+    <row r="640" outlineLevel="3" ht="15" customHeight="1">
       <c r="A640" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28718,7 +28718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" ht="15" customHeight="1">
+    <row r="641" outlineLevel="3" ht="15" customHeight="1">
       <c r="A641" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28762,7 +28762,7 @@
         <v>5358</v>
       </c>
     </row>
-    <row r="642" ht="15" customHeight="1">
+    <row r="642" outlineLevel="3" ht="15" customHeight="1">
       <c r="A642" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28806,7 +28806,7 @@
         <v>94354.36874999998</v>
       </c>
     </row>
-    <row r="643" ht="15" customHeight="1">
+    <row r="643" outlineLevel="3" ht="15" customHeight="1">
       <c r="A643" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28850,7 +28850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" ht="15" customHeight="1">
+    <row r="644" outlineLevel="3" ht="15" customHeight="1">
       <c r="A644" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28894,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" ht="15" customHeight="1">
+    <row r="645" outlineLevel="3" ht="15" customHeight="1">
       <c r="A645" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28938,7 +28938,7 @@
         <v>93080.27949999999</v>
       </c>
     </row>
-    <row r="646" ht="15" customHeight="1">
+    <row r="646" outlineLevel="3" ht="15" customHeight="1">
       <c r="A646" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -28982,7 +28982,7 @@
         <v>48478.95100000001</v>
       </c>
     </row>
-    <row r="647" ht="15" customHeight="1">
+    <row r="647" outlineLevel="3" ht="15" customHeight="1">
       <c r="A647" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29026,7 +29026,7 @@
         <v>101855.577</v>
       </c>
     </row>
-    <row r="648" ht="15" customHeight="1">
+    <row r="648" outlineLevel="3" ht="15" customHeight="1">
       <c r="A648" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29070,7 +29070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" ht="15" customHeight="1">
+    <row r="649" outlineLevel="3" ht="15" customHeight="1">
       <c r="A649" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29114,7 +29114,7 @@
         <v>-39762</v>
       </c>
     </row>
-    <row r="650" ht="15" customHeight="1">
+    <row r="650" outlineLevel="3" ht="15" customHeight="1">
       <c r="A650" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" ht="15" customHeight="1">
+    <row r="651" outlineLevel="3" ht="15" customHeight="1">
       <c r="A651" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29202,7 +29202,7 @@
         <v>5403.58</v>
       </c>
     </row>
-    <row r="652" ht="15" customHeight="1">
+    <row r="652" outlineLevel="3" ht="15" customHeight="1">
       <c r="A652" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29246,7 +29246,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="653" ht="15" customHeight="1">
+    <row r="653" outlineLevel="3" ht="15" customHeight="1">
       <c r="A653" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29290,7 +29290,7 @@
         <v>1097.733333333333</v>
       </c>
     </row>
-    <row r="654" ht="15" customHeight="1">
+    <row r="654" outlineLevel="3" ht="15" customHeight="1">
       <c r="A654" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29334,7 +29334,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="655" ht="15" customHeight="1">
+    <row r="655" outlineLevel="3" ht="15" customHeight="1">
       <c r="A655" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29378,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" ht="15" customHeight="1">
+    <row r="656" outlineLevel="3" ht="15" customHeight="1">
       <c r="A656" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" ht="15" customHeight="1">
+    <row r="657" outlineLevel="3" ht="15" customHeight="1">
       <c r="A657" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29466,7 +29466,7 @@
         <v>5559.347222222223</v>
       </c>
     </row>
-    <row r="658" ht="15" customHeight="1">
+    <row r="658" outlineLevel="3" ht="15" customHeight="1">
       <c r="A658" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29510,7 +29510,7 @@
         <v>13183.67647058824</v>
       </c>
     </row>
-    <row r="659" ht="15" customHeight="1">
+    <row r="659" outlineLevel="3" ht="15" customHeight="1">
       <c r="A659" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29554,7 +29554,7 @@
         <v>1204.125</v>
       </c>
     </row>
-    <row r="660" ht="15" customHeight="1">
+    <row r="660" outlineLevel="3" ht="15" customHeight="1">
       <c r="A660" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29598,7 +29598,7 @@
         <v>498.928125</v>
       </c>
     </row>
-    <row r="661" ht="15" customHeight="1">
+    <row r="661" outlineLevel="3" ht="15" customHeight="1">
       <c r="A661" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29642,7 +29642,7 @@
         <v>4876.457142857143</v>
       </c>
     </row>
-    <row r="662" ht="15" customHeight="1">
+    <row r="662" outlineLevel="3" ht="15" customHeight="1">
       <c r="A662" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29686,7 +29686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" ht="15" customHeight="1">
+    <row r="663" outlineLevel="3" ht="15" customHeight="1">
       <c r="A663" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29730,7 +29730,7 @@
         <v>619.8517894736842</v>
       </c>
     </row>
-    <row r="664" ht="15" customHeight="1">
+    <row r="664" outlineLevel="3" ht="15" customHeight="1">
       <c r="A664" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29774,7 +29774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" ht="15" customHeight="1">
+    <row r="665" outlineLevel="3" ht="15" customHeight="1">
       <c r="A665" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29818,7 +29818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" ht="15" customHeight="1">
+    <row r="666" outlineLevel="3" ht="15" customHeight="1">
       <c r="A666" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29862,7 +29862,7 @@
         <v>7951.062166666667</v>
       </c>
     </row>
-    <row r="667" ht="15" customHeight="1">
+    <row r="667" outlineLevel="3" ht="15" customHeight="1">
       <c r="A667" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29906,7 +29906,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="668" ht="15" customHeight="1">
+    <row r="668" outlineLevel="3" ht="15" customHeight="1">
       <c r="A668" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29950,7 +29950,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="669" ht="15" customHeight="1">
+    <row r="669" outlineLevel="2" ht="15" customHeight="1">
       <c r="A669" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" ht="15" customHeight="1">
+    <row r="670" outlineLevel="1" ht="15" customHeight="1">
       <c r="A670" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30038,7 +30038,7 @@
         <v>4914</v>
       </c>
     </row>
-    <row r="671" ht="15" customHeight="1">
+    <row r="671" outlineLevel="3" ht="15" customHeight="1">
       <c r="A671" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30082,7 +30082,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="672" ht="15" customHeight="1">
+    <row r="672" outlineLevel="2" ht="15" customHeight="1">
       <c r="A672" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30126,7 +30126,7 @@
         <v>17700</v>
       </c>
     </row>
-    <row r="673" ht="15" customHeight="1">
+    <row r="673" outlineLevel="3" ht="15" customHeight="1">
       <c r="A673" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30170,7 +30170,7 @@
         <v>2370</v>
       </c>
     </row>
-    <row r="674" ht="15" customHeight="1">
+    <row r="674" outlineLevel="3" ht="15" customHeight="1">
       <c r="A674" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30214,7 +30214,7 @@
         <v>10020</v>
       </c>
     </row>
-    <row r="675" ht="15" customHeight="1">
+    <row r="675" outlineLevel="3" ht="15" customHeight="1">
       <c r="A675" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" ht="15" customHeight="1">
+    <row r="676" outlineLevel="3" ht="15" customHeight="1">
       <c r="A676" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30302,7 +30302,7 @@
         <v>6302.5</v>
       </c>
     </row>
-    <row r="677" ht="15" customHeight="1">
+    <row r="677" outlineLevel="2" ht="15" customHeight="1">
       <c r="A677" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30346,7 +30346,7 @@
         <v>9433.666666666666</v>
       </c>
     </row>
-    <row r="678" ht="15" customHeight="1">
+    <row r="678" outlineLevel="1" ht="15" customHeight="1">
       <c r="A678" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30390,7 +30390,7 @@
         <v>7185.333333333333</v>
       </c>
     </row>
-    <row r="679" ht="15" customHeight="1">
+    <row r="679" outlineLevel="3" ht="15" customHeight="1">
       <c r="A679" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30434,7 +30434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" ht="15" customHeight="1">
+    <row r="680" outlineLevel="3" ht="15" customHeight="1">
       <c r="A680" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30478,7 +30478,7 @@
         <v>7219.666666666666</v>
       </c>
     </row>
-    <row r="681" ht="15" customHeight="1">
+    <row r="681" outlineLevel="3" ht="15" customHeight="1">
       <c r="A681" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30522,7 +30522,7 @@
         <v>11836</v>
       </c>
     </row>
-    <row r="682" ht="15" customHeight="1">
+    <row r="682" outlineLevel="3" ht="15" customHeight="1">
       <c r="A682" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30566,7 +30566,7 @@
         <v>14055.25</v>
       </c>
     </row>
-    <row r="683" ht="15" customHeight="1">
+    <row r="683" outlineLevel="3" ht="15" customHeight="1">
       <c r="A683" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30610,7 +30610,7 @@
         <v>8119.041666666666</v>
       </c>
     </row>
-    <row r="684" ht="15" customHeight="1">
+    <row r="684" outlineLevel="3" ht="15" customHeight="1">
       <c r="A684" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30654,7 +30654,7 @@
         <v>13622.5</v>
       </c>
     </row>
-    <row r="685" ht="15" customHeight="1">
+    <row r="685" outlineLevel="3" ht="15" customHeight="1">
       <c r="A685" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30698,7 +30698,7 @@
         <v>10791.47222222222</v>
       </c>
     </row>
-    <row r="686" ht="15" customHeight="1">
+    <row r="686" outlineLevel="3" ht="15" customHeight="1">
       <c r="A686" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30742,7 +30742,7 @@
         <v>6061.666666666666</v>
       </c>
     </row>
-    <row r="687" ht="15" customHeight="1">
+    <row r="687" outlineLevel="3" ht="15" customHeight="1">
       <c r="A687" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30786,7 +30786,7 @@
         <v>4202.333333333333</v>
       </c>
     </row>
-    <row r="688" ht="15" customHeight="1">
+    <row r="688" outlineLevel="3" ht="15" customHeight="1">
       <c r="A688" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30830,7 +30830,7 @@
         <v>15126</v>
       </c>
     </row>
-    <row r="689" ht="15" customHeight="1">
+    <row r="689" outlineLevel="3" ht="15" customHeight="1">
       <c r="A689" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30874,7 +30874,7 @@
         <v>14718.66666666667</v>
       </c>
     </row>
-    <row r="690" ht="15" customHeight="1">
+    <row r="690" outlineLevel="3" ht="15" customHeight="1">
       <c r="A690" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30918,7 +30918,7 @@
         <v>17016.75</v>
       </c>
     </row>
-    <row r="691" ht="15" customHeight="1">
+    <row r="691" outlineLevel="3" ht="15" customHeight="1">
       <c r="A691" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -30962,7 +30962,7 @@
         <v>10332.66666666667</v>
       </c>
     </row>
-    <row r="692" ht="15" customHeight="1">
+    <row r="692" outlineLevel="3" ht="15" customHeight="1">
       <c r="A692" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31006,7 +31006,7 @@
         <v>14692.70833333333</v>
       </c>
     </row>
-    <row r="693" ht="15" customHeight="1">
+    <row r="693" outlineLevel="3" ht="15" customHeight="1">
       <c r="A693" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31050,7 +31050,7 @@
         <v>15168</v>
       </c>
     </row>
-    <row r="694" ht="15" customHeight="1">
+    <row r="694" outlineLevel="2" ht="15" customHeight="1">
       <c r="A694" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31094,7 +31094,7 @@
         <v>40189.5</v>
       </c>
     </row>
-    <row r="695" ht="15" customHeight="1">
+    <row r="695" outlineLevel="1" ht="15" customHeight="1">
       <c r="A695" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31138,7 +31138,7 @@
         <v>34579.875</v>
       </c>
     </row>
-    <row r="696" ht="15" customHeight="1">
+    <row r="696" outlineLevel="3" ht="15" customHeight="1">
       <c r="A696" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31182,7 +31182,7 @@
         <v>23020.25</v>
       </c>
     </row>
-    <row r="697" ht="15" customHeight="1">
+    <row r="697" outlineLevel="3" ht="15" customHeight="1">
       <c r="A697" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31226,7 +31226,7 @@
         <v>50486.53333333333</v>
       </c>
     </row>
-    <row r="698" ht="15" customHeight="1">
+    <row r="698" outlineLevel="3" ht="15" customHeight="1">
       <c r="A698" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31270,7 +31270,7 @@
         <v>7233.833333333333</v>
       </c>
     </row>
-    <row r="699" ht="15" customHeight="1">
+    <row r="699" outlineLevel="3" ht="15" customHeight="1">
       <c r="A699" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31314,7 +31314,7 @@
         <v>8549.166666666666</v>
       </c>
     </row>
-    <row r="700" ht="15" customHeight="1">
+    <row r="700" outlineLevel="3" ht="15" customHeight="1">
       <c r="A700" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31358,7 +31358,7 @@
         <v>53957.16666666666</v>
       </c>
     </row>
-    <row r="701" ht="15" customHeight="1">
+    <row r="701" outlineLevel="3" ht="15" customHeight="1">
       <c r="A701" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31402,7 +31402,7 @@
         <v>16766</v>
       </c>
     </row>
-    <row r="702" ht="15" customHeight="1">
+    <row r="702" outlineLevel="3" ht="15" customHeight="1">
       <c r="A702" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31446,7 +31446,7 @@
         <v>39073.125</v>
       </c>
     </row>
-    <row r="703" ht="15" customHeight="1">
+    <row r="703" outlineLevel="3" ht="15" customHeight="1">
       <c r="A703" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31490,7 +31490,7 @@
         <v>80908.54166666666</v>
       </c>
     </row>
-    <row r="704" ht="15" customHeight="1">
+    <row r="704" outlineLevel="3" ht="15" customHeight="1">
       <c r="A704" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31534,7 +31534,7 @@
         <v>37486.5</v>
       </c>
     </row>
-    <row r="705" ht="15" customHeight="1">
+    <row r="705" outlineLevel="3" ht="15" customHeight="1">
       <c r="A705" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31578,7 +31578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" ht="15" customHeight="1">
+    <row r="706" outlineLevel="3" ht="15" customHeight="1">
       <c r="A706" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31622,7 +31622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" ht="15" customHeight="1">
+    <row r="707" outlineLevel="3" ht="15" customHeight="1">
       <c r="A707" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31666,7 +31666,7 @@
         <v>-830.125</v>
       </c>
     </row>
-    <row r="708" ht="15" customHeight="1">
+    <row r="708" outlineLevel="3" ht="15" customHeight="1">
       <c r="A708" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31710,7 +31710,7 @@
         <v>25036.66666666666</v>
       </c>
     </row>
-    <row r="709" ht="15" customHeight="1">
+    <row r="709" outlineLevel="3" ht="15" customHeight="1">
       <c r="A709" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31754,7 +31754,7 @@
         <v>26196.52777777778</v>
       </c>
     </row>
-    <row r="710" ht="15" customHeight="1">
+    <row r="710" outlineLevel="3" ht="15" customHeight="1">
       <c r="A710" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31798,7 +31798,7 @@
         <v>36339.1875</v>
       </c>
     </row>
-    <row r="711" ht="15" customHeight="1">
+    <row r="711" outlineLevel="3" ht="15" customHeight="1">
       <c r="A711" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31842,7 +31842,7 @@
         <v>19909.625</v>
       </c>
     </row>
-    <row r="712" ht="15" customHeight="1">
+    <row r="712" outlineLevel="3" ht="15" customHeight="1">
       <c r="A712" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31886,7 +31886,7 @@
         <v>30325</v>
       </c>
     </row>
-    <row r="713" ht="15" customHeight="1">
+    <row r="713" outlineLevel="3" ht="15" customHeight="1">
       <c r="A713" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31930,7 +31930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" ht="15" customHeight="1">
+    <row r="714" outlineLevel="3" ht="15" customHeight="1">
       <c r="A714" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -31974,7 +31974,7 @@
         <v>39642</v>
       </c>
     </row>
-    <row r="715" ht="15" customHeight="1">
+    <row r="715" outlineLevel="3" ht="15" customHeight="1">
       <c r="A715" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32018,7 +32018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" ht="15" customHeight="1">
+    <row r="716" outlineLevel="3" ht="15" customHeight="1">
       <c r="A716" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32062,7 +32062,7 @@
         <v>24333.61666666667</v>
       </c>
     </row>
-    <row r="717" ht="15" customHeight="1">
+    <row r="717" outlineLevel="3" ht="15" customHeight="1">
       <c r="A717" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32106,7 +32106,7 @@
         <v>26442.25</v>
       </c>
     </row>
-    <row r="718" ht="15" customHeight="1">
+    <row r="718" outlineLevel="3" ht="15" customHeight="1">
       <c r="A718" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32150,7 +32150,7 @@
         <v>33034.99999999999</v>
       </c>
     </row>
-    <row r="719" ht="15" customHeight="1">
+    <row r="719" outlineLevel="2" ht="15" customHeight="1">
       <c r="A719" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32194,7 +32194,7 @@
         <v>19877.16666666667</v>
       </c>
     </row>
-    <row r="720" ht="15" customHeight="1">
+    <row r="720" outlineLevel="3" ht="15" customHeight="1">
       <c r="A720" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32238,7 +32238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" ht="15" customHeight="1">
+    <row r="721" outlineLevel="3" ht="15" customHeight="1">
       <c r="A721" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32282,7 +32282,7 @@
         <v>7372.5</v>
       </c>
     </row>
-    <row r="722" ht="15" customHeight="1">
+    <row r="722" outlineLevel="3" ht="15" customHeight="1">
       <c r="A722" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32326,7 +32326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" ht="15" customHeight="1">
+    <row r="723" outlineLevel="3" ht="15" customHeight="1">
       <c r="A723" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32370,7 +32370,7 @@
         <v>4075.833333333333</v>
       </c>
     </row>
-    <row r="724" ht="15" customHeight="1">
+    <row r="724" outlineLevel="3" ht="15" customHeight="1">
       <c r="A724" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32414,7 +32414,7 @@
         <v>3089.166666666667</v>
       </c>
     </row>
-    <row r="725" ht="15" customHeight="1">
+    <row r="725" outlineLevel="3" ht="15" customHeight="1">
       <c r="A725" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32458,7 +32458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" ht="15" customHeight="1">
+    <row r="726" outlineLevel="3" ht="15" customHeight="1">
       <c r="A726" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32502,7 +32502,7 @@
         <v>14755.20833333333</v>
       </c>
     </row>
-    <row r="727" ht="15" customHeight="1">
+    <row r="727" outlineLevel="3" ht="15" customHeight="1">
       <c r="A727" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32546,7 +32546,7 @@
         <v>11818.33333333333</v>
       </c>
     </row>
-    <row r="728" ht="15" customHeight="1">
+    <row r="728" outlineLevel="3" ht="15" customHeight="1">
       <c r="A728" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32590,7 +32590,7 @@
         <v>6554.166666666667</v>
       </c>
     </row>
-    <row r="729" ht="15" customHeight="1">
+    <row r="729" outlineLevel="2" ht="15" customHeight="1">
       <c r="A729" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32634,7 +32634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" ht="15" customHeight="1">
+    <row r="730" outlineLevel="3" ht="15" customHeight="1">
       <c r="A730" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32678,7 +32678,7 @@
         <v>43348.63333333333</v>
       </c>
     </row>
-    <row r="731" ht="15" customHeight="1">
+    <row r="731" outlineLevel="3" ht="15" customHeight="1">
       <c r="A731" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32722,7 +32722,7 @@
         <v>21393</v>
       </c>
     </row>
-    <row r="732" ht="15" customHeight="1">
+    <row r="732" outlineLevel="3" ht="15" customHeight="1">
       <c r="A732" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32766,7 +32766,7 @@
         <v>717.8333333333333</v>
       </c>
     </row>
-    <row r="733" ht="15" customHeight="1">
+    <row r="733" outlineLevel="3" ht="15" customHeight="1">
       <c r="A733" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32810,7 +32810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" ht="15" customHeight="1">
+    <row r="734" outlineLevel="3" ht="15" customHeight="1">
       <c r="A734" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32854,7 +32854,7 @@
         <v>51650.13333333333</v>
       </c>
     </row>
-    <row r="735" ht="15" customHeight="1">
+    <row r="735" outlineLevel="2" ht="15" customHeight="1">
       <c r="A735" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32898,7 +32898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" ht="15" customHeight="1">
+    <row r="736" outlineLevel="3" ht="15" customHeight="1">
       <c r="A736" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32942,7 +32942,7 @@
         <v>33331.2</v>
       </c>
     </row>
-    <row r="737" ht="15" customHeight="1">
+    <row r="737" outlineLevel="3" ht="15" customHeight="1">
       <c r="A737" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -32986,7 +32986,7 @@
         <v>60609.9375</v>
       </c>
     </row>
-    <row r="738" ht="15" customHeight="1">
+    <row r="738" outlineLevel="3" ht="15" customHeight="1">
       <c r="A738" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33030,7 +33030,7 @@
         <v>-31424</v>
       </c>
     </row>
-    <row r="739" ht="15" customHeight="1">
+    <row r="739" outlineLevel="3" ht="15" customHeight="1">
       <c r="A739" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33074,7 +33074,7 @@
         <v>13319.55555555555</v>
       </c>
     </row>
-    <row r="740" ht="15" customHeight="1">
+    <row r="740" outlineLevel="3" ht="15" customHeight="1">
       <c r="A740" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33118,7 +33118,7 @@
         <v>18767</v>
       </c>
     </row>
-    <row r="741" ht="15" customHeight="1">
+    <row r="741" outlineLevel="3" ht="15" customHeight="1">
       <c r="A741" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33162,7 +33162,7 @@
         <v>19871.5</v>
       </c>
     </row>
-    <row r="742" ht="15" customHeight="1">
+    <row r="742" outlineLevel="3" ht="15" customHeight="1">
       <c r="A742" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33206,7 +33206,7 @@
         <v>15914.25</v>
       </c>
     </row>
-    <row r="743" ht="15" customHeight="1">
+    <row r="743" outlineLevel="3" ht="15" customHeight="1">
       <c r="A743" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33250,7 +33250,7 @@
         <v>5706.166666666666</v>
       </c>
     </row>
-    <row r="744" ht="15" customHeight="1">
+    <row r="744" outlineLevel="3" ht="15" customHeight="1">
       <c r="A744" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33294,7 +33294,7 @@
         <v>6839.25</v>
       </c>
     </row>
-    <row r="745" ht="15" customHeight="1">
+    <row r="745" outlineLevel="2" ht="15" customHeight="1">
       <c r="A745" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33338,7 +33338,7 @@
         <v>8151.666666666666</v>
       </c>
     </row>
-    <row r="746" ht="15" customHeight="1">
+    <row r="746" outlineLevel="1" ht="15" customHeight="1">
       <c r="A746" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33382,7 +33382,7 @@
         <v>5684</v>
       </c>
     </row>
-    <row r="747" ht="15" customHeight="1">
+    <row r="747" outlineLevel="3" ht="15" customHeight="1">
       <c r="A747" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33426,7 +33426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" ht="15" customHeight="1">
+    <row r="748" outlineLevel="3" ht="15" customHeight="1">
       <c r="A748" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33470,7 +33470,7 @@
         <v>14191</v>
       </c>
     </row>
-    <row r="749" ht="15" customHeight="1">
+    <row r="749" outlineLevel="2" ht="15" customHeight="1">
       <c r="A749" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33514,7 +33514,7 @@
         <v>12990.25</v>
       </c>
     </row>
-    <row r="750" ht="15" customHeight="1">
+    <row r="750" outlineLevel="1" ht="15" customHeight="1">
       <c r="A750" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33558,7 +33558,7 @@
         <v>6424.25</v>
       </c>
     </row>
-    <row r="751" ht="15" customHeight="1">
+    <row r="751" outlineLevel="3" ht="15" customHeight="1">
       <c r="A751" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33602,7 +33602,7 @@
         <v>14478.125</v>
       </c>
     </row>
-    <row r="752" ht="15" customHeight="1">
+    <row r="752" outlineLevel="3" ht="15" customHeight="1">
       <c r="A752" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33646,7 +33646,7 @@
         <v>10997.58333333333</v>
       </c>
     </row>
-    <row r="753" ht="15" customHeight="1">
+    <row r="753" outlineLevel="3" ht="15" customHeight="1">
       <c r="A753" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33690,7 +33690,7 @@
         <v>16215.5</v>
       </c>
     </row>
-    <row r="754" ht="15" customHeight="1">
+    <row r="754" outlineLevel="3" ht="15" customHeight="1">
       <c r="A754" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33734,7 +33734,7 @@
         <v>13898.66666666667</v>
       </c>
     </row>
-    <row r="755" ht="15" customHeight="1">
+    <row r="755" outlineLevel="3" ht="15" customHeight="1">
       <c r="A755" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33778,7 +33778,7 @@
         <v>2793.75</v>
       </c>
     </row>
-    <row r="756" ht="15" customHeight="1">
+    <row r="756" outlineLevel="3" ht="15" customHeight="1">
       <c r="A756" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33822,7 +33822,7 @@
         <v>16026.83333333333</v>
       </c>
     </row>
-    <row r="757" ht="15" customHeight="1">
+    <row r="757" outlineLevel="3" ht="15" customHeight="1">
       <c r="A757" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33866,7 +33866,7 @@
         <v>15633.44444444444</v>
       </c>
     </row>
-    <row r="758" ht="15" customHeight="1">
+    <row r="758" outlineLevel="3" ht="15" customHeight="1">
       <c r="A758" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33910,7 +33910,7 @@
         <v>12280.83333333333</v>
       </c>
     </row>
-    <row r="759" ht="15" customHeight="1">
+    <row r="759" outlineLevel="3" ht="15" customHeight="1">
       <c r="A759" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33954,7 +33954,7 @@
         <v>16898</v>
       </c>
     </row>
-    <row r="760" ht="15" customHeight="1">
+    <row r="760" outlineLevel="3" ht="15" customHeight="1">
       <c r="A760" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -33998,7 +33998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" ht="15" customHeight="1">
+    <row r="761" outlineLevel="3" ht="15" customHeight="1">
       <c r="A761" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34042,7 +34042,7 @@
         <v>9656</v>
       </c>
     </row>
-    <row r="762" ht="15" customHeight="1">
+    <row r="762" outlineLevel="3" ht="15" customHeight="1">
       <c r="A762" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34086,7 +34086,7 @@
         <v>12176</v>
       </c>
     </row>
-    <row r="763" ht="15" customHeight="1">
+    <row r="763" outlineLevel="3" ht="15" customHeight="1">
       <c r="A763" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34130,7 +34130,7 @@
         <v>5830</v>
       </c>
     </row>
-    <row r="764" ht="15" customHeight="1">
+    <row r="764" outlineLevel="3" ht="15" customHeight="1">
       <c r="A764" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34174,7 +34174,7 @@
         <v>21276</v>
       </c>
     </row>
-    <row r="765" ht="15" customHeight="1">
+    <row r="765" outlineLevel="3" ht="15" customHeight="1">
       <c r="A765" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34218,7 +34218,7 @@
         <v>29156</v>
       </c>
     </row>
-    <row r="766" ht="15" customHeight="1">
+    <row r="766" outlineLevel="3" ht="15" customHeight="1">
       <c r="A766" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34262,7 +34262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" ht="15" customHeight="1">
+    <row r="767" outlineLevel="3" ht="15" customHeight="1">
       <c r="A767" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34306,7 +34306,7 @@
         <v>5161</v>
       </c>
     </row>
-    <row r="768" ht="15" customHeight="1">
+    <row r="768" outlineLevel="3" ht="15" customHeight="1">
       <c r="A768" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34350,7 +34350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" ht="15" customHeight="1">
+    <row r="769" outlineLevel="3" ht="15" customHeight="1">
       <c r="A769" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34394,7 +34394,7 @@
         <v>7146</v>
       </c>
     </row>
-    <row r="770" ht="15" customHeight="1">
+    <row r="770" outlineLevel="2" ht="15" customHeight="1">
       <c r="A770" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34438,7 +34438,7 @@
         <v>6951</v>
       </c>
     </row>
-    <row r="771" ht="15" customHeight="1">
+    <row r="771" outlineLevel="3" ht="15" customHeight="1">
       <c r="A771" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34482,7 +34482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" ht="15" customHeight="1">
+    <row r="772" outlineLevel="3" ht="15" customHeight="1">
       <c r="A772" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34526,7 +34526,7 @@
         <v>4840.833333333333</v>
       </c>
     </row>
-    <row r="773" ht="15" customHeight="1">
+    <row r="773" outlineLevel="3" ht="15" customHeight="1">
       <c r="A773" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34570,7 +34570,7 @@
         <v>13698</v>
       </c>
     </row>
-    <row r="774" ht="15" customHeight="1">
+    <row r="774" outlineLevel="3" ht="15" customHeight="1">
       <c r="A774" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34614,7 +34614,7 @@
         <v>27396</v>
       </c>
     </row>
-    <row r="775" ht="15" customHeight="1">
+    <row r="775" outlineLevel="3" ht="15" customHeight="1">
       <c r="A775" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34658,7 +34658,7 @@
         <v>-3044</v>
       </c>
     </row>
-    <row r="776" ht="15" customHeight="1">
+    <row r="776" outlineLevel="3" ht="15" customHeight="1">
       <c r="A776" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34702,7 +34702,7 @@
         <v>12447</v>
       </c>
     </row>
-    <row r="777" ht="15" customHeight="1">
+    <row r="777" outlineLevel="3" ht="15" customHeight="1">
       <c r="A777" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34746,7 +34746,7 @@
         <v>12447</v>
       </c>
     </row>
-    <row r="778" ht="15" customHeight="1">
+    <row r="778" outlineLevel="3" ht="15" customHeight="1">
       <c r="A778" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34790,7 +34790,7 @@
         <v>23511</v>
       </c>
     </row>
-    <row r="779" ht="15" customHeight="1">
+    <row r="779" outlineLevel="3" ht="15" customHeight="1">
       <c r="A779" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34834,7 +34834,7 @@
         <v>10923</v>
       </c>
     </row>
-    <row r="780" ht="15" customHeight="1">
+    <row r="780" outlineLevel="3" ht="15" customHeight="1">
       <c r="A780" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34878,7 +34878,7 @@
         <v>5958</v>
       </c>
     </row>
-    <row r="781" ht="15" customHeight="1">
+    <row r="781" outlineLevel="3" ht="15" customHeight="1">
       <c r="A781" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34922,7 +34922,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="782" ht="15" customHeight="1">
+    <row r="782" outlineLevel="3" ht="15" customHeight="1">
       <c r="A782" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -34966,7 +34966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" ht="15" customHeight="1">
+    <row r="783" outlineLevel="3" ht="15" customHeight="1">
       <c r="A783" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35010,7 +35010,7 @@
         <v>15120</v>
       </c>
     </row>
-    <row r="784" ht="15" customHeight="1">
+    <row r="784" outlineLevel="3" ht="15" customHeight="1">
       <c r="A784" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35054,7 +35054,7 @@
         <v>-497</v>
       </c>
     </row>
-    <row r="785" ht="15" customHeight="1">
+    <row r="785" outlineLevel="3" ht="15" customHeight="1">
       <c r="A785" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35098,7 +35098,7 @@
         <v>18655</v>
       </c>
     </row>
-    <row r="786" ht="15" customHeight="1">
+    <row r="786" outlineLevel="3" ht="15" customHeight="1">
       <c r="A786" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35142,7 +35142,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="787" ht="15" customHeight="1">
+    <row r="787" outlineLevel="3" ht="15" customHeight="1">
       <c r="A787" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35186,7 +35186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" ht="15" customHeight="1">
+    <row r="788" outlineLevel="3" ht="15" customHeight="1">
       <c r="A788" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35230,7 +35230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" ht="15" customHeight="1">
+    <row r="789" outlineLevel="3" ht="15" customHeight="1">
       <c r="A789" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35274,7 +35274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" ht="15" customHeight="1">
+    <row r="790" outlineLevel="3" ht="15" customHeight="1">
       <c r="A790" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35318,7 +35318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" ht="15" customHeight="1">
+    <row r="791" outlineLevel="3" ht="15" customHeight="1">
       <c r="A791" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35362,7 +35362,7 @@
         <v>-1887</v>
       </c>
     </row>
-    <row r="792" ht="15" customHeight="1">
+    <row r="792" outlineLevel="3" ht="15" customHeight="1">
       <c r="A792" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35406,7 +35406,7 @@
         <v>24352</v>
       </c>
     </row>
-    <row r="793" ht="15" customHeight="1">
+    <row r="793" outlineLevel="3" ht="15" customHeight="1">
       <c r="A793" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35450,7 +35450,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="794" ht="15" customHeight="1">
+    <row r="794" outlineLevel="3" ht="15" customHeight="1">
       <c r="A794" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35494,7 +35494,7 @@
         <v>7871</v>
       </c>
     </row>
-    <row r="795" ht="15" customHeight="1">
+    <row r="795" outlineLevel="3" ht="15" customHeight="1">
       <c r="A795" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35538,7 +35538,7 @@
         <v>38050</v>
       </c>
     </row>
-    <row r="796" ht="15" customHeight="1">
+    <row r="796" outlineLevel="3" ht="15" customHeight="1">
       <c r="A796" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35582,7 +35582,7 @@
         <v>12447</v>
       </c>
     </row>
-    <row r="797" ht="15" customHeight="1">
+    <row r="797" outlineLevel="3" ht="15" customHeight="1">
       <c r="A797" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35626,7 +35626,7 @@
         <v>15372</v>
       </c>
     </row>
-    <row r="798" ht="15" customHeight="1">
+    <row r="798" outlineLevel="2" ht="15" customHeight="1">
       <c r="A798" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35670,7 +35670,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="799" ht="15" customHeight="1">
+    <row r="799" outlineLevel="3" ht="15" customHeight="1">
       <c r="A799" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35714,7 +35714,7 @@
         <v>13963.125</v>
       </c>
     </row>
-    <row r="800" ht="15" customHeight="1">
+    <row r="800" outlineLevel="3" ht="15" customHeight="1">
       <c r="A800" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35758,7 +35758,7 @@
         <v>13963.58333333333</v>
       </c>
     </row>
-    <row r="801" ht="15" customHeight="1">
+    <row r="801" outlineLevel="3" ht="15" customHeight="1">
       <c r="A801" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35802,7 +35802,7 @@
         <v>926.8333333333334</v>
       </c>
     </row>
-    <row r="802" ht="15" customHeight="1">
+    <row r="802" outlineLevel="3" ht="15" customHeight="1">
       <c r="A802" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35846,7 +35846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" ht="15" customHeight="1">
+    <row r="803" outlineLevel="3" ht="15" customHeight="1">
       <c r="A803" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35890,7 +35890,7 @@
         <v>27393.33333333334</v>
       </c>
     </row>
-    <row r="804" ht="15" customHeight="1">
+    <row r="804" outlineLevel="3" ht="15" customHeight="1">
       <c r="A804" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35934,7 +35934,7 @@
         <v>16860.15</v>
       </c>
     </row>
-    <row r="805" ht="15" customHeight="1">
+    <row r="805" outlineLevel="3" ht="15" customHeight="1">
       <c r="A805" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -35978,7 +35978,7 @@
         <v>12386.11111111111</v>
       </c>
     </row>
-    <row r="806" ht="15" customHeight="1">
+    <row r="806" outlineLevel="3" ht="15" customHeight="1">
       <c r="A806" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36022,7 +36022,7 @@
         <v>8359.799999999999</v>
       </c>
     </row>
-    <row r="807" ht="15" customHeight="1">
+    <row r="807" outlineLevel="3" ht="15" customHeight="1">
       <c r="A807" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36066,7 +36066,7 @@
         <v>5660</v>
       </c>
     </row>
-    <row r="808" ht="15" customHeight="1">
+    <row r="808" outlineLevel="3" ht="15" customHeight="1">
       <c r="A808" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36110,7 +36110,7 @@
         <v>13960.83333333333</v>
       </c>
     </row>
-    <row r="809" ht="15" customHeight="1">
+    <row r="809" outlineLevel="3" ht="15" customHeight="1">
       <c r="A809" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36154,7 +36154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" ht="15" customHeight="1">
+    <row r="810" outlineLevel="3" ht="15" customHeight="1">
       <c r="A810" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36198,7 +36198,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="811" ht="15" customHeight="1">
+    <row r="811" outlineLevel="3" ht="15" customHeight="1">
       <c r="A811" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36242,7 +36242,7 @@
         <v>878.8888888888889</v>
       </c>
     </row>
-    <row r="812" ht="15" customHeight="1">
+    <row r="812" outlineLevel="3" ht="15" customHeight="1">
       <c r="A812" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36286,7 +36286,7 @@
         <v>-5242.416666666666</v>
       </c>
     </row>
-    <row r="813" ht="15" customHeight="1">
+    <row r="813" outlineLevel="3" ht="15" customHeight="1">
       <c r="A813" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36330,7 +36330,7 @@
         <v>4805.333333333333</v>
       </c>
     </row>
-    <row r="814" ht="15" customHeight="1">
+    <row r="814" outlineLevel="3" ht="15" customHeight="1">
       <c r="A814" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36374,7 +36374,7 @@
         <v>4204.375</v>
       </c>
     </row>
-    <row r="815" ht="15" customHeight="1">
+    <row r="815" outlineLevel="3" ht="15" customHeight="1">
       <c r="A815" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36418,7 +36418,7 @@
         <v>10099.16666666667</v>
       </c>
     </row>
-    <row r="816" ht="15" customHeight="1">
+    <row r="816" outlineLevel="3" ht="15" customHeight="1">
       <c r="A816" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36462,7 +36462,7 @@
         <v>7591.458333333334</v>
       </c>
     </row>
-    <row r="817" ht="15" customHeight="1">
+    <row r="817" outlineLevel="3" ht="15" customHeight="1">
       <c r="A817" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36506,7 +36506,7 @@
         <v>6423.541666666667</v>
       </c>
     </row>
-    <row r="818" ht="15" customHeight="1">
+    <row r="818" outlineLevel="3" ht="15" customHeight="1">
       <c r="A818" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36550,7 +36550,7 @@
         <v>8767.5</v>
       </c>
     </row>
-    <row r="819" ht="15" customHeight="1">
+    <row r="819" outlineLevel="3" ht="15" customHeight="1">
       <c r="A819" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36594,7 +36594,7 @@
         <v>11327.5</v>
       </c>
     </row>
-    <row r="820" ht="15" customHeight="1">
+    <row r="820" outlineLevel="3" ht="15" customHeight="1">
       <c r="A820" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36638,7 +36638,7 @@
         <v>11690</v>
       </c>
     </row>
-    <row r="821" ht="15" customHeight="1">
+    <row r="821" outlineLevel="3" ht="15" customHeight="1">
       <c r="A821" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36682,7 +36682,7 @@
         <v>10875.27777777778</v>
       </c>
     </row>
-    <row r="822" ht="15" customHeight="1">
+    <row r="822" outlineLevel="3" ht="15" customHeight="1">
       <c r="A822" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36726,7 +36726,7 @@
         <v>9597.25</v>
       </c>
     </row>
-    <row r="823" ht="15" customHeight="1">
+    <row r="823" outlineLevel="3" ht="15" customHeight="1">
       <c r="A823" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36770,7 +36770,7 @@
         <v>13288.71428571428</v>
       </c>
     </row>
-    <row r="824" ht="15" customHeight="1">
+    <row r="824" outlineLevel="3" ht="15" customHeight="1">
       <c r="A824" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36814,7 +36814,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="825" ht="15" customHeight="1">
+    <row r="825" outlineLevel="3" ht="15" customHeight="1">
       <c r="A825" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36858,7 +36858,7 @@
         <v>5603.200000000001</v>
       </c>
     </row>
-    <row r="826" ht="15" customHeight="1">
+    <row r="826" outlineLevel="3" ht="15" customHeight="1">
       <c r="A826" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36902,7 +36902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" ht="15" customHeight="1">
+    <row r="827" outlineLevel="3" ht="15" customHeight="1">
       <c r="A827" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36946,7 +36946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" ht="15" customHeight="1">
+    <row r="828" outlineLevel="3" ht="15" customHeight="1">
       <c r="A828" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -36990,7 +36990,7 @@
         <v>5590.64</v>
       </c>
     </row>
-    <row r="829" ht="15" customHeight="1">
+    <row r="829" outlineLevel="3" ht="15" customHeight="1">
       <c r="A829" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37034,7 +37034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" ht="15" customHeight="1">
+    <row r="830" outlineLevel="3" ht="15" customHeight="1">
       <c r="A830" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37078,7 +37078,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="831" ht="15" customHeight="1">
+    <row r="831" outlineLevel="3" ht="15" customHeight="1">
       <c r="A831" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37122,7 +37122,7 @@
         <v>3392</v>
       </c>
     </row>
-    <row r="832" ht="15" customHeight="1">
+    <row r="832" outlineLevel="3" ht="15" customHeight="1">
       <c r="A832" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37166,7 +37166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" ht="15" customHeight="1">
+    <row r="833" outlineLevel="3" ht="15" customHeight="1">
       <c r="A833" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37210,7 +37210,7 @@
         <v>51836</v>
       </c>
     </row>
-    <row r="834" ht="15" customHeight="1">
+    <row r="834" outlineLevel="3" ht="15" customHeight="1">
       <c r="A834" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37254,7 +37254,7 @@
         <v>15105</v>
       </c>
     </row>
-    <row r="835" ht="15" customHeight="1">
+    <row r="835" outlineLevel="3" ht="15" customHeight="1">
       <c r="A835" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37298,7 +37298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" ht="15" customHeight="1">
+    <row r="836" outlineLevel="3" ht="15" customHeight="1">
       <c r="A836" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37342,7 +37342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" ht="15" customHeight="1">
+    <row r="837" outlineLevel="2" ht="15" customHeight="1">
       <c r="A837" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37386,7 +37386,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="838" ht="15" customHeight="1">
+    <row r="838" outlineLevel="3" ht="15" customHeight="1">
       <c r="A838" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37430,7 +37430,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="839" ht="15" customHeight="1">
+    <row r="839" outlineLevel="3" ht="15" customHeight="1">
       <c r="A839" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37474,7 +37474,7 @@
         <v>25175</v>
       </c>
     </row>
-    <row r="840" ht="15" customHeight="1">
+    <row r="840" outlineLevel="3" ht="15" customHeight="1">
       <c r="A840" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37518,7 +37518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" ht="15" customHeight="1">
+    <row r="841" outlineLevel="2" ht="15" customHeight="1">
       <c r="A841" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37562,7 +37562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" ht="15" customHeight="1">
+    <row r="842" outlineLevel="3" ht="15" customHeight="1">
       <c r="A842" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37606,7 +37606,7 @@
         <v>64795</v>
       </c>
     </row>
-    <row r="843" ht="15" customHeight="1">
+    <row r="843" outlineLevel="3" ht="15" customHeight="1">
       <c r="A843" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37650,7 +37650,7 @@
         <v>-20140</v>
       </c>
     </row>
-    <row r="844" ht="15" customHeight="1">
+    <row r="844" outlineLevel="3" ht="15" customHeight="1">
       <c r="A844" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37694,7 +37694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" ht="15" customHeight="1">
+    <row r="845" outlineLevel="3" ht="15" customHeight="1">
       <c r="A845" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37738,7 +37738,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="846" ht="15" customHeight="1">
+    <row r="846" outlineLevel="3" ht="15" customHeight="1">
       <c r="A846" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37782,7 +37782,7 @@
         <v>38877</v>
       </c>
     </row>
-    <row r="847" ht="15" customHeight="1">
+    <row r="847" outlineLevel="3" ht="15" customHeight="1">
       <c r="A847" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37826,7 +37826,7 @@
         <v>116631</v>
       </c>
     </row>
-    <row r="848" ht="15" customHeight="1">
+    <row r="848" outlineLevel="3" ht="15" customHeight="1">
       <c r="A848" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37870,7 +37870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" ht="15" customHeight="1">
+    <row r="849" outlineLevel="3" ht="15" customHeight="1">
       <c r="A849" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37914,7 +37914,7 @@
         <v>103672</v>
       </c>
     </row>
-    <row r="850" ht="15" customHeight="1">
+    <row r="850" outlineLevel="3" ht="15" customHeight="1">
       <c r="A850" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -37958,7 +37958,7 @@
         <v>5035</v>
       </c>
     </row>
-    <row r="851" ht="15" customHeight="1">
+    <row r="851" outlineLevel="3" ht="15" customHeight="1">
       <c r="A851" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38002,7 +38002,7 @@
         <v>75525</v>
       </c>
     </row>
-    <row r="852" ht="15" customHeight="1">
+    <row r="852" outlineLevel="3" ht="15" customHeight="1">
       <c r="A852" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38046,7 +38046,7 @@
         <v>50350</v>
       </c>
     </row>
-    <row r="853" ht="15" customHeight="1">
+    <row r="853" outlineLevel="3" ht="15" customHeight="1">
       <c r="A853" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" ht="15" customHeight="1">
+    <row r="854" outlineLevel="3" ht="15" customHeight="1">
       <c r="A854" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38134,7 +38134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" ht="15" customHeight="1">
+    <row r="855" outlineLevel="3" ht="15" customHeight="1">
       <c r="A855" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38178,7 +38178,7 @@
         <v>16595</v>
       </c>
     </row>
-    <row r="856" ht="15" customHeight="1">
+    <row r="856" outlineLevel="3" ht="15" customHeight="1">
       <c r="A856" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38222,7 +38222,7 @@
         <v>23040</v>
       </c>
     </row>
-    <row r="857" ht="15" customHeight="1">
+    <row r="857" outlineLevel="3" ht="15" customHeight="1">
       <c r="A857" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38266,7 +38266,7 @@
         <v>5002.8125</v>
       </c>
     </row>
-    <row r="858" ht="15" customHeight="1">
+    <row r="858" outlineLevel="3" ht="15" customHeight="1">
       <c r="A858" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38310,7 +38310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" ht="15" customHeight="1">
+    <row r="859" outlineLevel="3" ht="15" customHeight="1">
       <c r="A859" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38354,7 +38354,7 @@
         <v>1533.75</v>
       </c>
     </row>
-    <row r="860" ht="15" customHeight="1">
+    <row r="860" outlineLevel="3" ht="15" customHeight="1">
       <c r="A860" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38398,7 +38398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" ht="15" customHeight="1">
+    <row r="861" outlineLevel="3" ht="15" customHeight="1">
       <c r="A861" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38442,7 +38442,7 @@
         <v>8435.28125</v>
       </c>
     </row>
-    <row r="862" ht="15" customHeight="1">
+    <row r="862" outlineLevel="3" ht="15" customHeight="1">
       <c r="A862" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38486,7 +38486,7 @@
         <v>11435</v>
       </c>
     </row>
-    <row r="863" ht="15" customHeight="1">
+    <row r="863" outlineLevel="3" ht="15" customHeight="1">
       <c r="A863" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38530,7 +38530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" ht="15" customHeight="1">
+    <row r="864" outlineLevel="3" ht="15" customHeight="1">
       <c r="A864" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38574,7 +38574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" ht="15" customHeight="1">
+    <row r="865" outlineLevel="3" ht="15" customHeight="1">
       <c r="A865" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38618,7 +38618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" ht="15" customHeight="1">
+    <row r="866" outlineLevel="3" ht="15" customHeight="1">
       <c r="A866" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38662,7 +38662,7 @@
         <v>7668.75</v>
       </c>
     </row>
-    <row r="867" ht="15" customHeight="1">
+    <row r="867" outlineLevel="3" ht="15" customHeight="1">
       <c r="A867" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38706,7 +38706,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="868" ht="15" customHeight="1">
+    <row r="868" outlineLevel="3" ht="15" customHeight="1">
       <c r="A868" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38750,7 +38750,7 @@
         <v>2028.666666666667</v>
       </c>
     </row>
-    <row r="869" ht="15" customHeight="1">
+    <row r="869" outlineLevel="3" ht="15" customHeight="1">
       <c r="A869" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38794,7 +38794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" ht="15" customHeight="1">
+    <row r="870" outlineLevel="3" ht="15" customHeight="1">
       <c r="A870" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38838,7 +38838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" ht="15" customHeight="1">
+    <row r="871" outlineLevel="3" ht="15" customHeight="1">
       <c r="A871" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38882,7 +38882,7 @@
         <v>11037.55</v>
       </c>
     </row>
-    <row r="872" ht="15" customHeight="1">
+    <row r="872" outlineLevel="3" ht="15" customHeight="1">
       <c r="A872" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38926,7 +38926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" ht="15" customHeight="1">
+    <row r="873" outlineLevel="3" ht="15" customHeight="1">
       <c r="A873" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -38970,7 +38970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" ht="15" customHeight="1">
+    <row r="874" outlineLevel="3" ht="15" customHeight="1">
       <c r="A874" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39014,7 +39014,7 @@
         <v>4938.285714285715</v>
       </c>
     </row>
-    <row r="875" ht="15" customHeight="1">
+    <row r="875" outlineLevel="3" ht="15" customHeight="1">
       <c r="A875" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39058,7 +39058,7 @@
         <v>4938.285714285715</v>
       </c>
     </row>
-    <row r="876" ht="15" customHeight="1">
+    <row r="876" outlineLevel="3" ht="15" customHeight="1">
       <c r="A876" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39102,7 +39102,7 @@
         <v>4391.25</v>
       </c>
     </row>
-    <row r="877" ht="15" customHeight="1">
+    <row r="877" outlineLevel="3" ht="15" customHeight="1">
       <c r="A877" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39146,7 +39146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" ht="15" customHeight="1">
+    <row r="878" outlineLevel="2" ht="15" customHeight="1">
       <c r="A878" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39190,7 +39190,7 @@
         <v>5123.125</v>
       </c>
     </row>
-    <row r="879" ht="15" customHeight="1">
+    <row r="879" outlineLevel="3" ht="15" customHeight="1">
       <c r="A879" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39234,7 +39234,7 @@
         <v>2439.583333333333</v>
       </c>
     </row>
-    <row r="880" ht="15" customHeight="1">
+    <row r="880" outlineLevel="2" ht="15" customHeight="1">
       <c r="A880" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39278,7 +39278,7 @@
         <v>19041.44444444445</v>
       </c>
     </row>
-    <row r="881" ht="15" customHeight="1">
+    <row r="881" outlineLevel="3" ht="15" customHeight="1">
       <c r="A881" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39322,7 +39322,7 @@
         <v>3904.333333333333</v>
       </c>
     </row>
-    <row r="882" ht="15" customHeight="1">
+    <row r="882" outlineLevel="3" ht="15" customHeight="1">
       <c r="A882" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39366,7 +39366,7 @@
         <v>32287.66666666667</v>
       </c>
     </row>
-    <row r="883" ht="15" customHeight="1">
+    <row r="883" outlineLevel="3" ht="15" customHeight="1">
       <c r="A883" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39410,7 +39410,7 @@
         <v>7861.083333333334</v>
       </c>
     </row>
-    <row r="884" ht="15" customHeight="1">
+    <row r="884" outlineLevel="3" ht="15" customHeight="1">
       <c r="A884" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39454,7 +39454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" ht="15" customHeight="1">
+    <row r="885" outlineLevel="3" ht="15" customHeight="1">
       <c r="A885" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39498,7 +39498,7 @@
         <v>6556.861111111111</v>
       </c>
     </row>
-    <row r="886" ht="15" customHeight="1">
+    <row r="886" outlineLevel="3" ht="15" customHeight="1">
       <c r="A886" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39542,7 +39542,7 @@
         <v>19869.5</v>
       </c>
     </row>
-    <row r="887" ht="15" customHeight="1">
+    <row r="887" outlineLevel="3" ht="15" customHeight="1">
       <c r="A887" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39586,7 +39586,7 @@
         <v>20475</v>
       </c>
     </row>
-    <row r="888" ht="15" customHeight="1">
+    <row r="888" outlineLevel="3" ht="15" customHeight="1">
       <c r="A888" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39630,7 +39630,7 @@
         <v>15750</v>
       </c>
     </row>
-    <row r="889" ht="15" customHeight="1">
+    <row r="889" outlineLevel="3" ht="15" customHeight="1">
       <c r="A889" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39674,7 +39674,7 @@
         <v>2789.416666666667</v>
       </c>
     </row>
-    <row r="890" ht="15" customHeight="1">
+    <row r="890" outlineLevel="3" ht="15" customHeight="1">
       <c r="A890" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39718,7 +39718,7 @@
         <v>3095.033333333333</v>
       </c>
     </row>
-    <row r="891" ht="15" customHeight="1">
+    <row r="891" outlineLevel="3" ht="15" customHeight="1">
       <c r="A891" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39762,7 +39762,7 @@
         <v>5832.416666666667</v>
       </c>
     </row>
-    <row r="892" ht="15" customHeight="1">
+    <row r="892" outlineLevel="3" ht="15" customHeight="1">
       <c r="A892" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39806,7 +39806,7 @@
         <v>5248.142857142857</v>
       </c>
     </row>
-    <row r="893" ht="15" customHeight="1">
+    <row r="893" outlineLevel="3" ht="15" customHeight="1">
       <c r="A893" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39850,7 +39850,7 @@
         <v>5985.875</v>
       </c>
     </row>
-    <row r="894" ht="15" customHeight="1">
+    <row r="894" outlineLevel="2" ht="15" customHeight="1">
       <c r="A894" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39894,7 +39894,7 @@
         <v>2097.375</v>
       </c>
     </row>
-    <row r="895" ht="15" customHeight="1">
+    <row r="895" outlineLevel="3" ht="15" customHeight="1">
       <c r="A895" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39938,7 +39938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" ht="15" customHeight="1">
+    <row r="896" outlineLevel="3" ht="15" customHeight="1">
       <c r="A896" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -39982,7 +39982,7 @@
         <v>3595.5</v>
       </c>
     </row>
-    <row r="897" ht="15" customHeight="1">
+    <row r="897" outlineLevel="3" ht="15" customHeight="1">
       <c r="A897" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40026,7 +40026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" ht="15" customHeight="1">
+    <row r="898" outlineLevel="3" ht="15" customHeight="1">
       <c r="A898" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40070,7 +40070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" ht="15" customHeight="1">
+    <row r="899" outlineLevel="3" ht="15" customHeight="1">
       <c r="A899" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40114,7 +40114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" ht="15" customHeight="1">
+    <row r="900" outlineLevel="3" ht="15" customHeight="1">
       <c r="A900" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40158,7 +40158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" ht="15" customHeight="1">
+    <row r="901" outlineLevel="3" ht="15" customHeight="1">
       <c r="A901" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40202,7 +40202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" ht="15" customHeight="1">
+    <row r="902" outlineLevel="3" ht="15" customHeight="1">
       <c r="A902" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40246,7 +40246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" ht="15" customHeight="1">
+    <row r="903" outlineLevel="3" ht="15" customHeight="1">
       <c r="A903" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40290,7 +40290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" ht="15" customHeight="1">
+    <row r="904" outlineLevel="3" ht="15" customHeight="1">
       <c r="A904" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40334,7 +40334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" ht="15" customHeight="1">
+    <row r="905" outlineLevel="3" ht="15" customHeight="1">
       <c r="A905" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40378,7 +40378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" ht="15" customHeight="1">
+    <row r="906" outlineLevel="3" ht="15" customHeight="1">
       <c r="A906" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40422,7 +40422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" ht="15" customHeight="1">
+    <row r="907" outlineLevel="2" ht="15" customHeight="1">
       <c r="A907" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40466,7 +40466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" ht="15" customHeight="1">
+    <row r="908" outlineLevel="1" ht="15" customHeight="1">
       <c r="A908" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40510,7 +40510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" ht="15" customHeight="1">
+    <row r="909" outlineLevel="3" ht="15" customHeight="1">
       <c r="A909" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40554,7 +40554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" ht="15" customHeight="1">
+    <row r="910" outlineLevel="3" ht="15" customHeight="1">
       <c r="A910" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40598,7 +40598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" ht="15" customHeight="1">
+    <row r="911" outlineLevel="3" ht="15" customHeight="1">
       <c r="A911" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40642,7 +40642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" ht="15" customHeight="1">
+    <row r="912" outlineLevel="2" ht="15" customHeight="1">
       <c r="A912" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40686,7 +40686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" ht="15" customHeight="1">
+    <row r="913" outlineLevel="3" ht="15" customHeight="1">
       <c r="A913" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40730,7 +40730,7 @@
         <v>1143.066666666667</v>
       </c>
     </row>
-    <row r="914" ht="15" customHeight="1">
+    <row r="914" outlineLevel="3" ht="15" customHeight="1">
       <c r="A914" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40774,7 +40774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" ht="15" customHeight="1">
+    <row r="915" outlineLevel="3" ht="15" customHeight="1">
       <c r="A915" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40818,7 +40818,7 @@
         <v>5186.666666666667</v>
       </c>
     </row>
-    <row r="916" ht="15" customHeight="1">
+    <row r="916" outlineLevel="3" ht="15" customHeight="1">
       <c r="A916" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40862,7 +40862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" ht="15" customHeight="1">
+    <row r="917" outlineLevel="3" ht="15" customHeight="1">
       <c r="A917" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40906,7 +40906,7 @@
         <v>993.1333333333333</v>
       </c>
     </row>
-    <row r="918" ht="15" customHeight="1">
+    <row r="918" outlineLevel="3" ht="15" customHeight="1">
       <c r="A918" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40950,7 +40950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" ht="15" customHeight="1">
+    <row r="919" outlineLevel="3" ht="15" customHeight="1">
       <c r="A919" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -40994,7 +40994,7 @@
         <v>1737.983333333333</v>
       </c>
     </row>
-    <row r="920" ht="15" customHeight="1">
+    <row r="920" outlineLevel="3" ht="15" customHeight="1">
       <c r="A920" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41038,7 +41038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" ht="15" customHeight="1">
+    <row r="921" outlineLevel="3" ht="15" customHeight="1">
       <c r="A921" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41082,7 +41082,7 @@
         <v>20003.66666666666</v>
       </c>
     </row>
-    <row r="922" ht="15" customHeight="1">
+    <row r="922" outlineLevel="3" ht="15" customHeight="1">
       <c r="A922" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41126,7 +41126,7 @@
         <v>6194.833333333333</v>
       </c>
     </row>
-    <row r="923" ht="15" customHeight="1">
+    <row r="923" outlineLevel="3" ht="15" customHeight="1">
       <c r="A923" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41170,7 +41170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" ht="15" customHeight="1">
+    <row r="924" outlineLevel="3" ht="15" customHeight="1">
       <c r="A924" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41214,7 +41214,7 @@
         <v>13118.75</v>
       </c>
     </row>
-    <row r="925" ht="15" customHeight="1">
+    <row r="925" outlineLevel="3" ht="15" customHeight="1">
       <c r="A925" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41258,7 +41258,7 @@
         <v>5186.666666666667</v>
       </c>
     </row>
-    <row r="926" ht="15" customHeight="1">
+    <row r="926" outlineLevel="3" ht="15" customHeight="1">
       <c r="A926" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41302,7 +41302,7 @@
         <v>10201</v>
       </c>
     </row>
-    <row r="927" ht="15" customHeight="1">
+    <row r="927" outlineLevel="3" ht="15" customHeight="1">
       <c r="A927" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41346,7 +41346,7 @@
         <v>18153.33333333334</v>
       </c>
     </row>
-    <row r="928" ht="15" customHeight="1">
+    <row r="928" outlineLevel="3" ht="15" customHeight="1">
       <c r="A928" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41390,7 +41390,7 @@
         <v>6996.666666666667</v>
       </c>
     </row>
-    <row r="929" ht="15" customHeight="1">
+    <row r="929" outlineLevel="3" ht="15" customHeight="1">
       <c r="A929" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41434,7 +41434,7 @@
         <v>7776.5</v>
       </c>
     </row>
-    <row r="930" ht="15" customHeight="1">
+    <row r="930" outlineLevel="3" ht="15" customHeight="1">
       <c r="A930" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41478,7 +41478,7 @@
         <v>6480.416666666666</v>
       </c>
     </row>
-    <row r="931" ht="15" customHeight="1">
+    <row r="931" outlineLevel="3" ht="15" customHeight="1">
       <c r="A931" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41522,7 +41522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" ht="15" customHeight="1">
+    <row r="932" outlineLevel="3" ht="15" customHeight="1">
       <c r="A932" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41566,7 +41566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" ht="15" customHeight="1">
+    <row r="933" outlineLevel="3" ht="15" customHeight="1">
       <c r="A933" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41610,7 +41610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" ht="15" customHeight="1">
+    <row r="934" outlineLevel="3" ht="15" customHeight="1">
       <c r="A934" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41654,7 +41654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" ht="15" customHeight="1">
+    <row r="935" outlineLevel="3" ht="15" customHeight="1">
       <c r="A935" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41698,7 +41698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" ht="15" customHeight="1">
+    <row r="936" outlineLevel="3" ht="15" customHeight="1">
       <c r="A936" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41742,7 +41742,7 @@
         <v>6703.425</v>
       </c>
     </row>
-    <row r="937" ht="15" customHeight="1">
+    <row r="937" outlineLevel="3" ht="15" customHeight="1">
       <c r="A937" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41786,7 +41786,7 @@
         <v>7871.25</v>
       </c>
     </row>
-    <row r="938" ht="15" customHeight="1">
+    <row r="938" outlineLevel="3" ht="15" customHeight="1">
       <c r="A938" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41830,7 +41830,7 @@
         <v>7871.25</v>
       </c>
     </row>
-    <row r="939" ht="15" customHeight="1">
+    <row r="939" outlineLevel="2" ht="15" customHeight="1">
       <c r="A939" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41874,7 +41874,7 @@
         <v>13392</v>
       </c>
     </row>
-    <row r="940" ht="15" customHeight="1">
+    <row r="940" outlineLevel="3" ht="15" customHeight="1">
       <c r="A940" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41918,7 +41918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" ht="15" customHeight="1">
+    <row r="941" outlineLevel="3" ht="15" customHeight="1">
       <c r="A941" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -41962,7 +41962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" ht="15" customHeight="1">
+    <row r="942" outlineLevel="3" ht="15" customHeight="1">
       <c r="A942" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42006,7 +42006,7 @@
         <v>12144</v>
       </c>
     </row>
-    <row r="943" ht="15" customHeight="1">
+    <row r="943" outlineLevel="3" ht="15" customHeight="1">
       <c r="A943" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42050,7 +42050,7 @@
         <v>21567</v>
       </c>
     </row>
-    <row r="944" ht="15" customHeight="1">
+    <row r="944" outlineLevel="2" ht="15" customHeight="1">
       <c r="A944" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42094,7 +42094,7 @@
         <v>7384.666666666667</v>
       </c>
     </row>
-    <row r="945" ht="15" customHeight="1">
+    <row r="945" outlineLevel="1" ht="15" customHeight="1">
       <c r="A945" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42138,7 +42138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" ht="15" customHeight="1">
+    <row r="946" outlineLevel="3" ht="15" customHeight="1">
       <c r="A946" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42182,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" ht="15" customHeight="1">
+    <row r="947" outlineLevel="3" ht="15" customHeight="1">
       <c r="A947" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42226,7 +42226,7 @@
         <v>19895.66666666666</v>
       </c>
     </row>
-    <row r="948" ht="15" customHeight="1">
+    <row r="948" outlineLevel="3" ht="15" customHeight="1">
       <c r="A948" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42270,7 +42270,7 @@
         <v>8118.25</v>
       </c>
     </row>
-    <row r="949" ht="15" customHeight="1">
+    <row r="949" outlineLevel="3" ht="15" customHeight="1">
       <c r="A949" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42314,7 +42314,7 @@
         <v>16896</v>
       </c>
     </row>
-    <row r="950" ht="15" customHeight="1">
+    <row r="950" outlineLevel="3" ht="15" customHeight="1">
       <c r="A950" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42358,7 +42358,7 @@
         <v>4106.428571428572</v>
       </c>
     </row>
-    <row r="951" ht="15" customHeight="1">
+    <row r="951" outlineLevel="3" ht="15" customHeight="1">
       <c r="A951" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42402,7 +42402,7 @@
         <v>5784.25</v>
       </c>
     </row>
-    <row r="952" ht="15" customHeight="1">
+    <row r="952" outlineLevel="3" ht="15" customHeight="1">
       <c r="A952" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42446,7 +42446,7 @@
         <v>15692.88888888889</v>
       </c>
     </row>
-    <row r="953" ht="15" customHeight="1">
+    <row r="953" outlineLevel="3" ht="15" customHeight="1">
       <c r="A953" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42490,7 +42490,7 @@
         <v>4314.9</v>
       </c>
     </row>
-    <row r="954" ht="15" customHeight="1">
+    <row r="954" outlineLevel="3" ht="15" customHeight="1">
       <c r="A954" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42534,7 +42534,7 @@
         <v>9630.466666666667</v>
       </c>
     </row>
-    <row r="955" ht="15" customHeight="1">
+    <row r="955" outlineLevel="3" ht="15" customHeight="1">
       <c r="A955" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42578,7 +42578,7 @@
         <v>11453</v>
       </c>
     </row>
-    <row r="956" ht="15" customHeight="1">
+    <row r="956" outlineLevel="2" ht="15" customHeight="1">
       <c r="A956" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42622,7 +42622,7 @@
         <v>17338.75</v>
       </c>
     </row>
-    <row r="957" ht="15" customHeight="1">
+    <row r="957" outlineLevel="3" ht="15" customHeight="1">
       <c r="A957" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42666,7 +42666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" ht="15" customHeight="1">
+    <row r="958" outlineLevel="2" ht="15" customHeight="1">
       <c r="A958" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42710,7 +42710,7 @@
         <v>11935</v>
       </c>
     </row>
-    <row r="959" ht="15" customHeight="1">
+    <row r="959" outlineLevel="3" ht="15" customHeight="1">
       <c r="A959" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42754,7 +42754,7 @@
         <v>8757.5</v>
       </c>
     </row>
-    <row r="960" ht="15" customHeight="1">
+    <row r="960" outlineLevel="3" ht="15" customHeight="1">
       <c r="A960" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42798,7 +42798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" ht="15" customHeight="1">
+    <row r="961" outlineLevel="3" ht="15" customHeight="1">
       <c r="A961" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42842,7 +42842,7 @@
         <v>11083.8</v>
       </c>
     </row>
-    <row r="962" ht="15" customHeight="1">
+    <row r="962" outlineLevel="3" ht="15" customHeight="1">
       <c r="A962" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42886,7 +42886,7 @@
         <v>46269</v>
       </c>
     </row>
-    <row r="963" ht="15" customHeight="1">
+    <row r="963" outlineLevel="3" ht="15" customHeight="1">
       <c r="A963" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42930,7 +42930,7 @@
         <v>38334</v>
       </c>
     </row>
-    <row r="964" ht="15" customHeight="1">
+    <row r="964" outlineLevel="3" ht="15" customHeight="1">
       <c r="A964" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -42974,7 +42974,7 @@
         <v>7589</v>
       </c>
     </row>
-    <row r="965" ht="15" customHeight="1">
+    <row r="965" outlineLevel="3" ht="15" customHeight="1">
       <c r="A965" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43018,7 +43018,7 @@
         <v>5550</v>
       </c>
     </row>
-    <row r="966" ht="15" customHeight="1">
+    <row r="966" outlineLevel="3" ht="15" customHeight="1">
       <c r="A966" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43062,7 +43062,7 @@
         <v>11074.13333333333</v>
       </c>
     </row>
-    <row r="967" ht="15" customHeight="1">
+    <row r="967" outlineLevel="3" ht="15" customHeight="1">
       <c r="A967" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43106,7 +43106,7 @@
         <v>16401.43333333333</v>
       </c>
     </row>
-    <row r="968" ht="15" customHeight="1">
+    <row r="968" outlineLevel="3" ht="15" customHeight="1">
       <c r="A968" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43150,7 +43150,7 @@
         <v>8307.875</v>
       </c>
     </row>
-    <row r="969" ht="15" customHeight="1">
+    <row r="969" outlineLevel="3" ht="15" customHeight="1">
       <c r="A969" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43194,7 +43194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" ht="15" customHeight="1">
+    <row r="970" outlineLevel="3" ht="15" customHeight="1">
       <c r="A970" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43238,7 +43238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" ht="15" customHeight="1">
+    <row r="971" outlineLevel="3" ht="15" customHeight="1">
       <c r="A971" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43282,7 +43282,7 @@
         <v>13563.6</v>
       </c>
     </row>
-    <row r="972" ht="15" customHeight="1">
+    <row r="972" outlineLevel="3" ht="15" customHeight="1">
       <c r="A972" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43326,7 +43326,7 @@
         <v>1484.4</v>
       </c>
     </row>
-    <row r="973" ht="15" customHeight="1">
+    <row r="973" outlineLevel="3" ht="15" customHeight="1">
       <c r="A973" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43370,7 +43370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" ht="15" customHeight="1">
+    <row r="974" outlineLevel="3" ht="15" customHeight="1">
       <c r="A974" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43414,7 +43414,7 @@
         <v>18461.66666666667</v>
       </c>
     </row>
-    <row r="975" ht="15" customHeight="1">
+    <row r="975" outlineLevel="3" ht="15" customHeight="1">
       <c r="A975" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43458,7 +43458,7 @@
         <v>7538.083333333334</v>
       </c>
     </row>
-    <row r="976" ht="15" customHeight="1">
+    <row r="976" outlineLevel="3" ht="15" customHeight="1">
       <c r="A976" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43502,7 +43502,7 @@
         <v>7981.5</v>
       </c>
     </row>
-    <row r="977" ht="15" customHeight="1">
+    <row r="977" outlineLevel="3" ht="15" customHeight="1">
       <c r="A977" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43546,7 +43546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" ht="15" customHeight="1">
+    <row r="978" outlineLevel="3" ht="15" customHeight="1">
       <c r="A978" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43590,7 +43590,7 @@
         <v>15997.08333333333</v>
       </c>
     </row>
-    <row r="979" ht="15" customHeight="1">
+    <row r="979" outlineLevel="3" ht="15" customHeight="1">
       <c r="A979" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43634,7 +43634,7 @@
         <v>28180.9</v>
       </c>
     </row>
-    <row r="980" ht="15" customHeight="1">
+    <row r="980" outlineLevel="3" ht="15" customHeight="1">
       <c r="A980" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43678,7 +43678,7 @@
         <v>1932.2734375</v>
       </c>
     </row>
-    <row r="981" ht="15" customHeight="1">
+    <row r="981" outlineLevel="3" ht="15" customHeight="1">
       <c r="A981" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43722,7 +43722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" ht="15" customHeight="1">
+    <row r="982" outlineLevel="3" ht="15" customHeight="1">
       <c r="A982" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43766,7 +43766,7 @@
         <v>18464.16666666667</v>
       </c>
     </row>
-    <row r="983" ht="15" customHeight="1">
+    <row r="983" outlineLevel="3" ht="15" customHeight="1">
       <c r="A983" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43810,7 +43810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" ht="15" customHeight="1">
+    <row r="984" outlineLevel="3" ht="15" customHeight="1">
       <c r="A984" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43854,7 +43854,7 @@
         <v>12674.45833333333</v>
       </c>
     </row>
-    <row r="985" ht="15" customHeight="1">
+    <row r="985" outlineLevel="3" ht="15" customHeight="1">
       <c r="A985" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43898,7 +43898,7 @@
         <v>7172.708333333334</v>
       </c>
     </row>
-    <row r="986" ht="15" customHeight="1">
+    <row r="986" outlineLevel="3" ht="15" customHeight="1">
       <c r="A986" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43942,7 +43942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" ht="15" customHeight="1">
+    <row r="987" outlineLevel="3" ht="15" customHeight="1">
       <c r="A987" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -43986,7 +43986,7 @@
         <v>13872</v>
       </c>
     </row>
-    <row r="988" ht="15" customHeight="1">
+    <row r="988" outlineLevel="3" ht="15" customHeight="1">
       <c r="A988" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44030,7 +44030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" ht="15" customHeight="1">
+    <row r="989" outlineLevel="3" ht="15" customHeight="1">
       <c r="A989" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44074,7 +44074,7 @@
         <v>17340</v>
       </c>
     </row>
-    <row r="990" ht="15" customHeight="1">
+    <row r="990" outlineLevel="3" ht="15" customHeight="1">
       <c r="A990" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44118,7 +44118,7 @@
         <v>20303.25</v>
       </c>
     </row>
-    <row r="991" ht="15" customHeight="1">
+    <row r="991" outlineLevel="3" ht="15" customHeight="1">
       <c r="A991" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44162,7 +44162,7 @@
         <v>11797.2</v>
       </c>
     </row>
-    <row r="992" ht="15" customHeight="1">
+    <row r="992" outlineLevel="3" ht="15" customHeight="1">
       <c r="A992" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44206,7 +44206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" ht="15" customHeight="1">
+    <row r="993" outlineLevel="3" ht="15" customHeight="1">
       <c r="A993" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44250,7 +44250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" ht="15" customHeight="1">
+    <row r="994" outlineLevel="2" ht="15" customHeight="1">
       <c r="A994" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44294,7 +44294,7 @@
         <v>15553.11111111111</v>
       </c>
     </row>
-    <row r="995" ht="15" customHeight="1">
+    <row r="995" outlineLevel="3" ht="15" customHeight="1">
       <c r="A995" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44338,7 +44338,7 @@
         <v>2157.5</v>
       </c>
     </row>
-    <row r="996" ht="15" customHeight="1">
+    <row r="996" outlineLevel="3" ht="15" customHeight="1">
       <c r="A996" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44382,7 +44382,7 @@
         <v>1599.666666666667</v>
       </c>
     </row>
-    <row r="997" ht="15" customHeight="1">
+    <row r="997" outlineLevel="3" ht="15" customHeight="1">
       <c r="A997" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44426,7 +44426,7 @@
         <v>9277.5</v>
       </c>
     </row>
-    <row r="998" ht="15" customHeight="1">
+    <row r="998" outlineLevel="3" ht="15" customHeight="1">
       <c r="A998" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44470,7 +44470,7 @@
         <v>4140</v>
       </c>
     </row>
-    <row r="999" ht="15" customHeight="1">
+    <row r="999" outlineLevel="3" ht="15" customHeight="1">
       <c r="A999" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44514,7 +44514,7 @@
         <v>20286</v>
       </c>
     </row>
-    <row r="1000" ht="15" customHeight="1">
+    <row r="1000" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1000" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44558,7 +44558,7 @@
         <v>5910</v>
       </c>
     </row>
-    <row r="1001" ht="15" customHeight="1">
+    <row r="1001" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1001" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44602,7 +44602,7 @@
         <v>4925</v>
       </c>
     </row>
-    <row r="1002" ht="15" customHeight="1">
+    <row r="1002" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1002" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44646,7 +44646,7 @@
         <v>6660</v>
       </c>
     </row>
-    <row r="1003" ht="15" customHeight="1">
+    <row r="1003" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1003" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44690,7 +44690,7 @@
         <v>8865</v>
       </c>
     </row>
-    <row r="1004" ht="15" customHeight="1">
+    <row r="1004" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1004" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44734,7 +44734,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="1005" ht="15" customHeight="1">
+    <row r="1005" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1005" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44778,7 +44778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1006" ht="15" customHeight="1">
+    <row r="1006" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1006" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44822,7 +44822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1007" ht="15" customHeight="1">
+    <row r="1007" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1007" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44866,7 +44866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1008" ht="15" customHeight="1">
+    <row r="1008" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1008" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44910,7 +44910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1009" ht="15" customHeight="1">
+    <row r="1009" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1009" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44954,7 +44954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1010" ht="15" customHeight="1">
+    <row r="1010" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1010" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -44998,7 +44998,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="1011" ht="15" customHeight="1">
+    <row r="1011" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1011" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45042,7 +45042,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="1012" ht="15" customHeight="1">
+    <row r="1012" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1012" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45086,7 +45086,7 @@
         <v>12040</v>
       </c>
     </row>
-    <row r="1013" ht="15" customHeight="1">
+    <row r="1013" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1013" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45130,7 +45130,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="1014" ht="15" customHeight="1">
+    <row r="1014" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1014" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45174,7 +45174,7 @@
         <v>8721</v>
       </c>
     </row>
-    <row r="1015" ht="15" customHeight="1">
+    <row r="1015" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1015" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45218,7 +45218,7 @@
         <v>8330</v>
       </c>
     </row>
-    <row r="1016" ht="15" customHeight="1">
+    <row r="1016" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1016" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45262,7 +45262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1017" ht="15" customHeight="1">
+    <row r="1017" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1017" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45306,7 +45306,7 @@
         <v>7140</v>
       </c>
     </row>
-    <row r="1018" ht="15" customHeight="1">
+    <row r="1018" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1018" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45350,7 +45350,7 @@
         <v>6028</v>
       </c>
     </row>
-    <row r="1019" ht="15" customHeight="1">
+    <row r="1019" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1019" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45394,7 +45394,7 @@
         <v>7535</v>
       </c>
     </row>
-    <row r="1020" ht="15" customHeight="1">
+    <row r="1020" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1020" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45438,7 +45438,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="1021" ht="15" customHeight="1">
+    <row r="1021" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1021" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45482,7 +45482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1022" ht="15" customHeight="1">
+    <row r="1022" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1022" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45526,7 +45526,7 @@
         <v>4289.563636363636</v>
       </c>
     </row>
-    <row r="1023" ht="15" customHeight="1">
+    <row r="1023" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1023" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45570,7 +45570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1024" ht="15" customHeight="1">
+    <row r="1024" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1024" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45614,7 +45614,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="1025" ht="15" customHeight="1">
+    <row r="1025" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1025" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45658,7 +45658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1026" ht="15" customHeight="1">
+    <row r="1026" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1026" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45702,7 +45702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1027" ht="15" customHeight="1">
+    <row r="1027" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1027" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45746,7 +45746,7 @@
         <v>11964.16666666667</v>
       </c>
     </row>
-    <row r="1028" ht="15" customHeight="1">
+    <row r="1028" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1028" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45790,7 +45790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1029" ht="15" customHeight="1">
+    <row r="1029" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1029" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45834,7 +45834,7 @@
         <v>10587.6</v>
       </c>
     </row>
-    <row r="1030" ht="15" customHeight="1">
+    <row r="1030" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1030" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45878,7 +45878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1031" ht="15" customHeight="1">
+    <row r="1031" outlineLevel="2" ht="15" customHeight="1">
       <c r="A1031" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45922,7 +45922,7 @@
         <v>11761.86666666667</v>
       </c>
     </row>
-    <row r="1032" ht="15" customHeight="1">
+    <row r="1032" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1032" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -45966,7 +45966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1033" ht="15" customHeight="1">
+    <row r="1033" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1033" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46010,7 +46010,7 @@
         <v>7832.142857142857</v>
       </c>
     </row>
-    <row r="1034" ht="15" customHeight="1">
+    <row r="1034" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1034" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46054,7 +46054,7 @@
         <v>4113.900000000001</v>
       </c>
     </row>
-    <row r="1035" ht="15" customHeight="1">
+    <row r="1035" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1035" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46098,7 +46098,7 @@
         <v>32535.16666666666</v>
       </c>
     </row>
-    <row r="1036" ht="15" customHeight="1">
+    <row r="1036" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1036" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46142,7 +46142,7 @@
         <v>21130.61111111111</v>
       </c>
     </row>
-    <row r="1037" ht="15" customHeight="1">
+    <row r="1037" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1037" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46186,7 +46186,7 @@
         <v>11741.20833333333</v>
       </c>
     </row>
-    <row r="1038" ht="15" customHeight="1">
+    <row r="1038" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1038" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46230,7 +46230,7 @@
         <v>6675.958333333334</v>
       </c>
     </row>
-    <row r="1039" ht="15" customHeight="1">
+    <row r="1039" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1039" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46274,7 +46274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1040" ht="15" customHeight="1">
+    <row r="1040" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1040" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46318,7 +46318,7 @@
         <v>15585.33333333333</v>
       </c>
     </row>
-    <row r="1041" ht="15" customHeight="1">
+    <row r="1041" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1041" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46362,7 +46362,7 @@
         <v>26300.25</v>
       </c>
     </row>
-    <row r="1042" ht="15" customHeight="1">
+    <row r="1042" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1042" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46406,7 +46406,7 @@
         <v>15585.33333333333</v>
       </c>
     </row>
-    <row r="1043" ht="15" customHeight="1">
+    <row r="1043" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1043" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46450,7 +46450,7 @@
         <v>12740</v>
       </c>
     </row>
-    <row r="1044" ht="15" customHeight="1">
+    <row r="1044" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1044" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46494,7 +46494,7 @@
         <v>11975.2</v>
       </c>
     </row>
-    <row r="1045" ht="15" customHeight="1">
+    <row r="1045" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1045" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46538,7 +46538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1046" ht="15" customHeight="1">
+    <row r="1046" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1046" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46582,7 +46582,7 @@
         <v>14611.25</v>
       </c>
     </row>
-    <row r="1047" ht="15" customHeight="1">
+    <row r="1047" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1047" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46626,7 +46626,7 @@
         <v>6601.440000000001</v>
       </c>
     </row>
-    <row r="1048" ht="15" customHeight="1">
+    <row r="1048" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1048" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46670,7 +46670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1049" ht="15" customHeight="1">
+    <row r="1049" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1049" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46714,7 +46714,7 @@
         <v>5303.888888888889</v>
       </c>
     </row>
-    <row r="1050" ht="15" customHeight="1">
+    <row r="1050" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1050" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46758,7 +46758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1051" ht="15" customHeight="1">
+    <row r="1051" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1051" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46802,7 +46802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1052" ht="15" customHeight="1">
+    <row r="1052" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1052" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46846,7 +46846,7 @@
         <v>18942.03333333333</v>
       </c>
     </row>
-    <row r="1053" ht="15" customHeight="1">
+    <row r="1053" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1053" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46890,7 +46890,7 @@
         <v>5877</v>
       </c>
     </row>
-    <row r="1054" ht="15" customHeight="1">
+    <row r="1054" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1054" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46934,7 +46934,7 @@
         <v>4887.083333333333</v>
       </c>
     </row>
-    <row r="1055" ht="15" customHeight="1">
+    <row r="1055" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1055" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -46978,7 +46978,7 @@
         <v>5215.599999999999</v>
       </c>
     </row>
-    <row r="1056" ht="15" customHeight="1">
+    <row r="1056" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1056" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47022,7 +47022,7 @@
         <v>5856</v>
       </c>
     </row>
-    <row r="1057" ht="15" customHeight="1">
+    <row r="1057" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1057" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47066,7 +47066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1058" ht="15" customHeight="1">
+    <row r="1058" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1058" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47110,7 +47110,7 @@
         <v>3660</v>
       </c>
     </row>
-    <row r="1059" ht="15" customHeight="1">
+    <row r="1059" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1059" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47154,7 +47154,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="1060" ht="15" customHeight="1">
+    <row r="1060" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1060" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47198,7 +47198,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="1061" ht="15" customHeight="1">
+    <row r="1061" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1061" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47242,7 +47242,7 @@
         <v>2019.6</v>
       </c>
     </row>
-    <row r="1062" ht="15" customHeight="1">
+    <row r="1062" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1062" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47286,7 +47286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1063" ht="15" customHeight="1">
+    <row r="1063" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1063" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47330,7 +47330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1064" ht="15" customHeight="1">
+    <row r="1064" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1064" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47374,7 +47374,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="1065" ht="15" customHeight="1">
+    <row r="1065" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1065" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47418,7 +47418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1066" ht="15" customHeight="1">
+    <row r="1066" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1066" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47462,7 +47462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1067" ht="15" customHeight="1">
+    <row r="1067" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1067" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47506,7 +47506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1068" ht="15" customHeight="1">
+    <row r="1068" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1068" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47550,7 +47550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1069" ht="15" customHeight="1">
+    <row r="1069" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1069" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47594,7 +47594,7 @@
         <v>8355.416666666666</v>
       </c>
     </row>
-    <row r="1070" ht="15" customHeight="1">
+    <row r="1070" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1070" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47638,7 +47638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1071" ht="15" customHeight="1">
+    <row r="1071" outlineLevel="2" ht="15" customHeight="1">
       <c r="A1071" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47682,7 +47682,7 @@
         <v>3523.928571428571</v>
       </c>
     </row>
-    <row r="1072" ht="15" customHeight="1">
+    <row r="1072" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1072" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47726,7 +47726,7 @@
         <v>19680</v>
       </c>
     </row>
-    <row r="1073" ht="15" customHeight="1">
+    <row r="1073" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1073" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47770,7 +47770,7 @@
         <v>11589.42857142857</v>
       </c>
     </row>
-    <row r="1074" ht="15" customHeight="1">
+    <row r="1074" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1074" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47814,7 +47814,7 @@
         <v>15760</v>
       </c>
     </row>
-    <row r="1075" ht="15" customHeight="1">
+    <row r="1075" outlineLevel="2" ht="15" customHeight="1">
       <c r="A1075" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47858,7 +47858,7 @@
         <v>5860.400000000001</v>
       </c>
     </row>
-    <row r="1076" ht="15" customHeight="1">
+    <row r="1076" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1076" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47902,7 +47902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1077" ht="15" customHeight="1">
+    <row r="1077" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1077" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47946,7 +47946,7 @@
         <v>17388</v>
       </c>
     </row>
-    <row r="1078" ht="15" customHeight="1">
+    <row r="1078" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1078" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -47990,7 +47990,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="1079" ht="15" customHeight="1">
+    <row r="1079" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1079" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48034,7 +48034,7 @@
         <v>7317.490909090909</v>
       </c>
     </row>
-    <row r="1080" ht="15" customHeight="1">
+    <row r="1080" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1080" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48078,7 +48078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1081" ht="15" customHeight="1">
+    <row r="1081" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1081" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48122,7 +48122,7 @@
         <v>7288.75</v>
       </c>
     </row>
-    <row r="1082" ht="15" customHeight="1">
+    <row r="1082" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1082" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48166,7 +48166,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="1083" ht="15" customHeight="1">
+    <row r="1083" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1083" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48210,7 +48210,7 @@
         <v>13720</v>
       </c>
     </row>
-    <row r="1084" ht="15" customHeight="1">
+    <row r="1084" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1084" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48254,7 +48254,7 @@
         <v>7288.75</v>
       </c>
     </row>
-    <row r="1085" ht="15" customHeight="1">
+    <row r="1085" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1085" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48298,7 +48298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1086" ht="15" customHeight="1">
+    <row r="1086" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1086" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48342,7 +48342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1087" ht="15" customHeight="1">
+    <row r="1087" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1087" s="20" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48386,7 +48386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1088" ht="15" customHeight="1">
+    <row r="1088" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1088" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48430,7 +48430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1089" ht="15" customHeight="1">
+    <row r="1089" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1089" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48474,7 +48474,7 @@
         <v>6895</v>
       </c>
     </row>
-    <row r="1090" ht="15" customHeight="1">
+    <row r="1090" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1090" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48518,7 +48518,7 @@
         <v>6268</v>
       </c>
     </row>
-    <row r="1091" ht="15" customHeight="1">
+    <row r="1091" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1091" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48562,7 +48562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1092" ht="15" customHeight="1">
+    <row r="1092" outlineLevel="3" ht="15" customHeight="1">
       <c r="A1092" t="inlineStr">
         <is>
           <t>TIENDA</t>
@@ -48606,110 +48606,110 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="1093" ht="15" customHeight="1"/>
-    <row r="1094" ht="15" customHeight="1"/>
-    <row r="1095" ht="15" customHeight="1"/>
-    <row r="1096" ht="15" customHeight="1"/>
-    <row r="1097" ht="15" customHeight="1"/>
-    <row r="1098" ht="15" customHeight="1"/>
-    <row r="1099" ht="15" customHeight="1"/>
-    <row r="1100" ht="15" customHeight="1"/>
-    <row r="1101" ht="15" customHeight="1"/>
-    <row r="1102" ht="15" customHeight="1"/>
-    <row r="1103" ht="15" customHeight="1"/>
-    <row r="1104" ht="15" customHeight="1"/>
-    <row r="1105" ht="15" customHeight="1"/>
-    <row r="1106" ht="15" customHeight="1"/>
-    <row r="1107" ht="15" customHeight="1"/>
-    <row r="1108" ht="15" customHeight="1"/>
-    <row r="1109" ht="15" customHeight="1"/>
-    <row r="1110" ht="15" customHeight="1"/>
-    <row r="1111" ht="15" customHeight="1"/>
-    <row r="1112" ht="15" customHeight="1"/>
-    <row r="1113" ht="15" customHeight="1"/>
-    <row r="1114" ht="15" customHeight="1"/>
-    <row r="1115" ht="15" customHeight="1"/>
-    <row r="1116" ht="15" customHeight="1"/>
-    <row r="1117" ht="15" customHeight="1"/>
-    <row r="1118" ht="15" customHeight="1"/>
-    <row r="1119" ht="15" customHeight="1"/>
-    <row r="1120" ht="15" customHeight="1"/>
-    <row r="1121" ht="15" customHeight="1"/>
-    <row r="1122" ht="15" customHeight="1"/>
-    <row r="1123" ht="15" customHeight="1"/>
-    <row r="1124" ht="15" customHeight="1"/>
-    <row r="1125" ht="15" customHeight="1"/>
-    <row r="1126" ht="15" customHeight="1"/>
-    <row r="1127" ht="15" customHeight="1"/>
-    <row r="1128" ht="15" customHeight="1"/>
-    <row r="1129" ht="15" customHeight="1"/>
-    <row r="1130" ht="15" customHeight="1"/>
-    <row r="1131" ht="15" customHeight="1"/>
-    <row r="1132" ht="15" customHeight="1"/>
-    <row r="1133" ht="15" customHeight="1"/>
-    <row r="1134" ht="15" customHeight="1"/>
-    <row r="1135" ht="15" customHeight="1"/>
-    <row r="1136" ht="15" customHeight="1"/>
-    <row r="1137" ht="15" customHeight="1"/>
-    <row r="1138" ht="15" customHeight="1"/>
-    <row r="1139" ht="15" customHeight="1"/>
-    <row r="1140" ht="15" customHeight="1"/>
-    <row r="1141" ht="15" customHeight="1"/>
-    <row r="1142" ht="15" customHeight="1"/>
-    <row r="1143" ht="15" customHeight="1"/>
-    <row r="1144" ht="15" customHeight="1"/>
-    <row r="1145" ht="15" customHeight="1"/>
-    <row r="1146" ht="15" customHeight="1"/>
-    <row r="1147" ht="15" customHeight="1"/>
-    <row r="1148" ht="15" customHeight="1"/>
-    <row r="1149" ht="15" customHeight="1"/>
-    <row r="1150" ht="15" customHeight="1"/>
-    <row r="1151" ht="15" customHeight="1"/>
-    <row r="1152" ht="15" customHeight="1"/>
-    <row r="1153" ht="15" customHeight="1"/>
-    <row r="1154" ht="15" customHeight="1"/>
-    <row r="1155" ht="15" customHeight="1"/>
-    <row r="1156" ht="15" customHeight="1"/>
-    <row r="1157" ht="15" customHeight="1"/>
-    <row r="1158" ht="15" customHeight="1"/>
-    <row r="1159" ht="15" customHeight="1"/>
-    <row r="1160" ht="15" customHeight="1"/>
-    <row r="1161" ht="15" customHeight="1"/>
-    <row r="1162" ht="15" customHeight="1"/>
-    <row r="1163" ht="15" customHeight="1"/>
-    <row r="1164" ht="15" customHeight="1"/>
-    <row r="1165" ht="15" customHeight="1"/>
-    <row r="1166" ht="15" customHeight="1"/>
-    <row r="1167" ht="15" customHeight="1"/>
-    <row r="1168" ht="15" customHeight="1"/>
-    <row r="1169" ht="15" customHeight="1"/>
-    <row r="1170" ht="15" customHeight="1"/>
-    <row r="1171" ht="15" customHeight="1"/>
-    <row r="1172" ht="15" customHeight="1"/>
-    <row r="1173" ht="15" customHeight="1"/>
-    <row r="1174" ht="15" customHeight="1"/>
-    <row r="1175" ht="15" customHeight="1"/>
-    <row r="1176" ht="15" customHeight="1"/>
-    <row r="1177" ht="15" customHeight="1"/>
-    <row r="1178" ht="15" customHeight="1"/>
-    <row r="1179" ht="15" customHeight="1"/>
-    <row r="1180" ht="15" customHeight="1"/>
-    <row r="1181" ht="15" customHeight="1"/>
-    <row r="1182" ht="15" customHeight="1"/>
-    <row r="1183" ht="15" customHeight="1"/>
-    <row r="1184" ht="15" customHeight="1"/>
-    <row r="1185" ht="15" customHeight="1"/>
-    <row r="1186" ht="15" customHeight="1"/>
-    <row r="1187" ht="15" customHeight="1"/>
-    <row r="1188" ht="15" customHeight="1"/>
-    <row r="1189" ht="15" customHeight="1"/>
-    <row r="1190" ht="15" customHeight="1"/>
-    <row r="1191" ht="15" customHeight="1"/>
-    <row r="1192" ht="15" customHeight="1"/>
-    <row r="1193" ht="15" customHeight="1"/>
-    <row r="1194" ht="15" customHeight="1"/>
-    <row r="1195" ht="15" customHeight="1"/>
-    <row r="1196" ht="15" customHeight="1"/>
+    <row r="1093" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1094" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1095" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1096" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1097" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1098" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1099" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1100" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1101" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1102" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1103" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1104" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1105" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1106" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1107" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1108" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1109" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1110" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1111" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1112" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1113" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1114" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1115" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1116" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1117" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1118" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1119" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1120" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1121" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1122" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1123" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1124" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1125" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1126" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1127" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1128" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1129" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1130" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1131" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1132" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1133" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1134" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1135" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1136" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1137" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1138" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1139" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1140" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1141" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1142" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1143" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1144" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1145" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1146" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1147" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1148" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1149" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1150" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1151" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1152" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1153" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1154" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1155" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1156" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1157" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1158" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1159" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1160" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1161" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1162" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1163" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1164" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1165" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1166" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1167" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1168" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1169" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1170" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1171" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1172" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1173" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1174" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1175" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1176" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1177" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1178" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1179" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1180" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1181" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1182" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1183" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1184" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1185" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1186" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1187" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1188" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1189" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1190" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1191" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1192" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1193" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1194" outlineLevel="3" ht="15" customHeight="1"/>
+    <row r="1195" outlineLevel="2" ht="15" customHeight="1"/>
+    <row r="1196" outlineLevel="1" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
